--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_16_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_16_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1279150.826169016</v>
+        <v>1278410.363348292</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>251.017240630768</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>233.5562907382949</v>
       </c>
       <c r="D11" t="n">
-        <v>222.9664405879704</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>283.0845181045931</v>
+        <v>65.55559976348189</v>
       </c>
       <c r="H11" t="n">
-        <v>93.4441742311428</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>65.8728397687461</v>
       </c>
       <c r="T11" t="n">
-        <v>89.18341408247076</v>
+        <v>89.1834140824707</v>
       </c>
       <c r="U11" t="n">
-        <v>119.5889224048976</v>
+        <v>119.5889224048975</v>
       </c>
       <c r="V11" t="n">
         <v>196.0356574374223</v>
       </c>
       <c r="W11" t="n">
-        <v>217.5243676847005</v>
+        <v>217.5243676847004</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>238.0144996457564</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.521337623341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.81658261715478</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>40.99189795560318</v>
+        <v>40.99189795560312</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>15.72846453192614</v>
       </c>
       <c r="E12" t="n">
-        <v>61.72206059886318</v>
+        <v>25.92847942268833</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>13.35261136067126</v>
       </c>
       <c r="G12" t="n">
-        <v>5.358526637115127</v>
+        <v>5.35852663711507</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>34.98135294622711</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T12" t="n">
         <v>199.0829306929842</v>
@@ -1506,16 +1506,16 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V12" t="n">
-        <v>101.0839861167127</v>
+        <v>217.0335969730044</v>
       </c>
       <c r="W12" t="n">
-        <v>119.978382128207</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>74.05638417076491</v>
+        <v>74.05638417076486</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>73.96609474459174</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.11537914922474</v>
+        <v>48.11537914922468</v>
       </c>
       <c r="C13" t="n">
-        <v>35.53022006591527</v>
+        <v>35.53022006591522</v>
       </c>
       <c r="D13" t="n">
-        <v>16.8988719854998</v>
+        <v>16.89887198549974</v>
       </c>
       <c r="E13" t="n">
-        <v>14.71736161385661</v>
+        <v>14.71736161385655</v>
       </c>
       <c r="F13" t="n">
-        <v>13.70444699021868</v>
+        <v>13.70444699021863</v>
       </c>
       <c r="G13" t="n">
-        <v>36.04936959028134</v>
+        <v>36.04936959028129</v>
       </c>
       <c r="H13" t="n">
-        <v>28.5100392630486</v>
+        <v>28.51003926304855</v>
       </c>
       <c r="I13" t="n">
-        <v>16.96724755893</v>
+        <v>16.96724755892994</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.45957938437369</v>
+        <v>35.45957938437363</v>
       </c>
       <c r="S13" t="n">
-        <v>88.37870840529496</v>
+        <v>88.3787084052949</v>
       </c>
       <c r="T13" t="n">
-        <v>95.26758743494639</v>
+        <v>95.26758743494634</v>
       </c>
       <c r="U13" t="n">
-        <v>154.5901551200257</v>
+        <v>154.5901551200256</v>
       </c>
       <c r="V13" t="n">
         <v>120.4210422911154</v>
@@ -1591,10 +1591,10 @@
         <v>154.8063973038784</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99305435632459</v>
+        <v>93.99305435632454</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.86805231938223</v>
+        <v>86.86805231938217</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.017240630768</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>233.556290738295</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>222.9664405879704</v>
+        <v>207.6239670015249</v>
       </c>
       <c r="E14" t="n">
-        <v>250.2137690395492</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>18.6720943080308</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>283.0845181045931</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>59.42064602642677</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.87283976874616</v>
+        <v>65.8728397687461</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>89.1834140824707</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>119.5889224048975</v>
       </c>
       <c r="V14" t="n">
         <v>196.0356574374223</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>217.5243676847004</v>
       </c>
       <c r="X14" t="n">
-        <v>238.0144996457565</v>
+        <v>238.0144996457564</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.81658261715478</v>
+        <v>34.81658261715472</v>
       </c>
       <c r="C15" t="n">
-        <v>40.99189795560318</v>
+        <v>40.99189795560312</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>141.8780902789801</v>
       </c>
       <c r="F15" t="n">
-        <v>13.35261136067132</v>
+        <v>13.35261136067126</v>
       </c>
       <c r="G15" t="n">
-        <v>5.358526637115127</v>
+        <v>5.35852663711507</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>34.98135294622711</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T15" t="n">
-        <v>67.36632966027165</v>
+        <v>67.36632966027159</v>
       </c>
       <c r="U15" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V15" t="n">
-        <v>101.0839861167127</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>119.978382128207</v>
       </c>
       <c r="X15" t="n">
-        <v>109.8499653469398</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>73.96609474459174</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.11537914922474</v>
+        <v>48.11537914922468</v>
       </c>
       <c r="C16" t="n">
-        <v>35.53022006591527</v>
+        <v>35.53022006591522</v>
       </c>
       <c r="D16" t="n">
-        <v>16.8988719854998</v>
+        <v>16.89887198549974</v>
       </c>
       <c r="E16" t="n">
-        <v>14.71736161385661</v>
+        <v>14.71736161385655</v>
       </c>
       <c r="F16" t="n">
-        <v>13.70444699021868</v>
+        <v>13.70444699021863</v>
       </c>
       <c r="G16" t="n">
-        <v>36.04936959028134</v>
+        <v>36.04936959028129</v>
       </c>
       <c r="H16" t="n">
-        <v>28.5100392630486</v>
+        <v>28.51003926304855</v>
       </c>
       <c r="I16" t="n">
-        <v>16.96724755893</v>
+        <v>16.96724755892994</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.45957938437369</v>
+        <v>35.45957938437363</v>
       </c>
       <c r="S16" t="n">
-        <v>88.37870840529496</v>
+        <v>88.3787084052949</v>
       </c>
       <c r="T16" t="n">
-        <v>95.26758743494639</v>
+        <v>95.26758743494634</v>
       </c>
       <c r="U16" t="n">
-        <v>154.5901551200257</v>
+        <v>154.5901551200256</v>
       </c>
       <c r="V16" t="n">
         <v>120.4210422911154</v>
@@ -1828,10 +1828,10 @@
         <v>154.8063973038784</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99305435632459</v>
+        <v>93.99305435632454</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.86805231938223</v>
+        <v>86.86805231938217</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.92603421149225</v>
+        <v>13.92603421149224</v>
       </c>
       <c r="V17" t="n">
         <v>90.37276924401701</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>83.49414262488439</v>
       </c>
       <c r="S18" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>116.6007768658149</v>
       </c>
       <c r="U18" t="n">
         <v>225.9237248774628</v>
@@ -1983,13 +1983,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>14.31549393480171</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>123.9497335407658</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>167.1761804170862</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>14.7581540977101</v>
       </c>
       <c r="W19" t="n">
-        <v>49.1435091104731</v>
+        <v>62.40021310181936</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.18606330980461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H20" t="n">
-        <v>96.95811367770447</v>
+        <v>96.95811367770429</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2160,13 +2160,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>62.78186876159504</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S21" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>232.4592516134479</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.6009042264951413</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>229.3601513350528</v>
+        <v>48.92726692662036</v>
       </c>
       <c r="V22" t="n">
         <v>14.7581540977101</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.92603421149225</v>
+        <v>13.92603421149224</v>
       </c>
       <c r="V23" t="n">
         <v>90.37276924401701</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>11.99923921495946</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2409,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.49414262488439</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>166.6979539789397</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>231.3513545968781</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>14.31549393480171</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>20.20624411267127</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>160.2266402957612</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>180.4328844084325</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>232.6897813850287</v>
+        <v>232.6897813850286</v>
       </c>
       <c r="C26" t="n">
         <v>215.2288314925556</v>
@@ -2561,19 +2561,19 @@
         <v>204.638981342231</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8863097938099</v>
+        <v>231.8863097938098</v>
       </c>
       <c r="F26" t="n">
         <v>256.8319854632595</v>
       </c>
       <c r="G26" t="n">
-        <v>264.7570588588538</v>
+        <v>264.7570588588537</v>
       </c>
       <c r="H26" t="n">
-        <v>184.2935426253703</v>
+        <v>184.2935426253702</v>
       </c>
       <c r="I26" t="n">
-        <v>41.09318678068746</v>
+        <v>41.09318678068743</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.5453805230068</v>
+        <v>47.54538052300677</v>
       </c>
       <c r="T26" t="n">
-        <v>70.8559548367314</v>
+        <v>70.85595483673137</v>
       </c>
       <c r="U26" t="n">
         <v>101.2614631591582</v>
@@ -2621,7 +2621,7 @@
         <v>219.6870404000171</v>
       </c>
       <c r="Y26" t="n">
-        <v>236.1938783776017</v>
+        <v>236.1938783776016</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16.48912337141542</v>
+        <v>159.4706678930147</v>
       </c>
       <c r="C27" t="n">
-        <v>22.66443870986382</v>
+        <v>22.66443870986379</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,16 +2643,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2691,10 +2691,10 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V27" t="n">
-        <v>190.9575831150468</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>101.6509228824677</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.78791990348537</v>
+        <v>29.78791990348535</v>
       </c>
       <c r="C28" t="n">
-        <v>17.20276082017591</v>
+        <v>17.20276082017588</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.72191034454199</v>
+        <v>17.72191034454196</v>
       </c>
       <c r="H28" t="n">
-        <v>10.18258001730924</v>
+        <v>10.18258001730922</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.13212013863433</v>
+        <v>17.1321201386343</v>
       </c>
       <c r="S28" t="n">
-        <v>70.0512491595556</v>
+        <v>70.05124915955557</v>
       </c>
       <c r="T28" t="n">
-        <v>76.94012818920703</v>
+        <v>76.940128189207</v>
       </c>
       <c r="U28" t="n">
         <v>136.2626958742863</v>
@@ -2776,10 +2776,10 @@
         <v>136.4789380581391</v>
       </c>
       <c r="X28" t="n">
-        <v>75.66559511058523</v>
+        <v>75.6655951105852</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.54059307364287</v>
+        <v>68.54059307364284</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09318678068743</v>
+        <v>41.0931867806874</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.54538052300677</v>
+        <v>47.54538052300674</v>
       </c>
       <c r="T29" t="n">
-        <v>70.85595483673137</v>
+        <v>70.85595483673134</v>
       </c>
       <c r="U29" t="n">
         <v>101.2614631591582</v>
       </c>
       <c r="V29" t="n">
-        <v>177.708198191683</v>
+        <v>177.7081981916829</v>
       </c>
       <c r="W29" t="n">
-        <v>199.1969084389611</v>
+        <v>199.196908438961</v>
       </c>
       <c r="X29" t="n">
         <v>219.6870404000171</v>
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16.48912337141539</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>7.601020176948964</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>142.9815445215993</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5113268420280304</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>83.49414262488439</v>
       </c>
       <c r="S30" t="n">
-        <v>16.65389370048772</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T30" t="n">
-        <v>49.03887041453225</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U30" t="n">
         <v>225.9237248774628</v>
@@ -2931,7 +2931,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>101.6509228824676</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.78791990348535</v>
+        <v>29.78791990348532</v>
       </c>
       <c r="C31" t="n">
-        <v>17.20276082017588</v>
+        <v>17.20276082017585</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.72191034454196</v>
+        <v>17.72191034454193</v>
       </c>
       <c r="H31" t="n">
-        <v>10.18258001730922</v>
+        <v>10.18258001730919</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.1321201386343</v>
+        <v>17.13212013863427</v>
       </c>
       <c r="S31" t="n">
-        <v>70.05124915955557</v>
+        <v>70.05124915955554</v>
       </c>
       <c r="T31" t="n">
-        <v>76.940128189207</v>
+        <v>76.94012818920697</v>
       </c>
       <c r="U31" t="n">
         <v>136.2626958742863</v>
       </c>
       <c r="V31" t="n">
-        <v>102.0935830453761</v>
+        <v>102.093583045376</v>
       </c>
       <c r="W31" t="n">
-        <v>136.4789380581391</v>
+        <v>136.478938058139</v>
       </c>
       <c r="X31" t="n">
-        <v>75.6655951105852</v>
+        <v>75.66559511058517</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.54059307364284</v>
+        <v>68.54059307364281</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I32" t="n">
-        <v>41.0931867806874</v>
+        <v>41.09318678068743</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,19 +3077,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.54538052300674</v>
+        <v>47.54538052300677</v>
       </c>
       <c r="T32" t="n">
-        <v>70.85595483673134</v>
+        <v>70.85595483673137</v>
       </c>
       <c r="U32" t="n">
         <v>101.2614631591582</v>
       </c>
       <c r="V32" t="n">
-        <v>177.7081981916829</v>
+        <v>177.708198191683</v>
       </c>
       <c r="W32" t="n">
-        <v>199.196908438961</v>
+        <v>199.1969084389611</v>
       </c>
       <c r="X32" t="n">
         <v>219.6870404000171</v>
@@ -3108,13 +3108,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>22.66443870986379</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>67.800362726551</v>
       </c>
       <c r="E33" t="n">
-        <v>7.601020176948964</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3159,7 +3159,7 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T33" t="n">
-        <v>119.4382278548965</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U33" t="n">
         <v>225.9237248774628</v>
@@ -3168,13 +3168,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>101.6509228824677</v>
       </c>
       <c r="X33" t="n">
-        <v>55.7289249250255</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>55.63863549885238</v>
+        <v>55.63863549885241</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.78791990348532</v>
+        <v>29.78791990348535</v>
       </c>
       <c r="C34" t="n">
-        <v>17.20276082017585</v>
+        <v>17.20276082017588</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>17.72191034454193</v>
+        <v>17.72191034454196</v>
       </c>
       <c r="H34" t="n">
-        <v>10.18258001730919</v>
+        <v>10.18258001730922</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.13212013863427</v>
+        <v>17.1321201386343</v>
       </c>
       <c r="S34" t="n">
-        <v>70.05124915955554</v>
+        <v>70.05124915955557</v>
       </c>
       <c r="T34" t="n">
-        <v>76.94012818920697</v>
+        <v>76.940128189207</v>
       </c>
       <c r="U34" t="n">
         <v>136.2626958742863</v>
       </c>
       <c r="V34" t="n">
-        <v>102.093583045376</v>
+        <v>102.0935830453761</v>
       </c>
       <c r="W34" t="n">
-        <v>136.478938058139</v>
+        <v>136.4789380581391</v>
       </c>
       <c r="X34" t="n">
-        <v>75.66559511058517</v>
+        <v>75.6655951105852</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.54059307364281</v>
+        <v>68.54059307364284</v>
       </c>
     </row>
     <row r="35">
@@ -3275,13 +3275,13 @@
         <v>144.5508808461439</v>
       </c>
       <c r="F35" t="n">
-        <v>169.4965565155936</v>
+        <v>169.4965565155935</v>
       </c>
       <c r="G35" t="n">
         <v>177.4216299111878</v>
       </c>
       <c r="H35" t="n">
-        <v>96.95811367770435</v>
+        <v>96.95811367770429</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.92603421149231</v>
+        <v>13.92603421149224</v>
       </c>
       <c r="V35" t="n">
-        <v>90.37276924401706</v>
+        <v>90.37276924401701</v>
       </c>
       <c r="W35" t="n">
-        <v>111.8614794912952</v>
+        <v>111.8614794912951</v>
       </c>
       <c r="X35" t="n">
-        <v>132.3516114523512</v>
+        <v>132.3516114523511</v>
       </c>
       <c r="Y35" t="n">
         <v>148.8584494299357</v>
@@ -3348,22 +3348,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>50.25635324248842</v>
+        <v>69.71225412917633</v>
       </c>
       <c r="H36" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.49414262488439</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>14.31549393480176</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3475,16 +3475,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>180.4328844084325</v>
       </c>
       <c r="U37" t="n">
-        <v>48.92726692662042</v>
+        <v>48.92726692662036</v>
       </c>
       <c r="V37" t="n">
-        <v>14.75815409771016</v>
+        <v>14.7581540977101</v>
       </c>
       <c r="W37" t="n">
-        <v>229.5763935189054</v>
+        <v>49.1435091104731</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3512,13 +3512,13 @@
         <v>144.5508808461439</v>
       </c>
       <c r="F38" t="n">
-        <v>169.4965565155936</v>
+        <v>169.4965565155935</v>
       </c>
       <c r="G38" t="n">
         <v>177.4216299111878</v>
       </c>
       <c r="H38" t="n">
-        <v>96.95811367770435</v>
+        <v>96.95811367770429</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.92603421149231</v>
+        <v>13.92603421149225</v>
       </c>
       <c r="V38" t="n">
-        <v>90.37276924401706</v>
+        <v>90.37276924401701</v>
       </c>
       <c r="W38" t="n">
-        <v>111.8614794912952</v>
+        <v>111.8614794912951</v>
       </c>
       <c r="X38" t="n">
-        <v>132.3516114523512</v>
+        <v>132.3516114523511</v>
       </c>
       <c r="Y38" t="n">
         <v>148.8584494299357</v>
@@ -3582,25 +3582,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>105.1380997616306</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I39" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.49414262488439</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>95.56567645543342</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>14.31549393480176</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3715,16 +3715,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.92726692662042</v>
+        <v>229.3601513350528</v>
       </c>
       <c r="V40" t="n">
-        <v>14.75815409771016</v>
+        <v>14.7581540977101</v>
       </c>
       <c r="W40" t="n">
-        <v>49.14350911047316</v>
+        <v>49.1435091104731</v>
       </c>
       <c r="X40" t="n">
-        <v>180.4328844084322</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,10 +3740,10 @@
         <v>161.8338265482973</v>
       </c>
       <c r="C41" t="n">
-        <v>144.3728766558242</v>
+        <v>144.3728766558243</v>
       </c>
       <c r="D41" t="n">
-        <v>133.7830265054996</v>
+        <v>133.7830265054997</v>
       </c>
       <c r="E41" t="n">
         <v>161.0303549570785</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.40550832242682</v>
+        <v>30.40550832242685</v>
       </c>
       <c r="V41" t="n">
         <v>106.8522433549516</v>
@@ -3816,25 +3816,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>3.863738913656663</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>26.58116316262165</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>83.49414262488439</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T42" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U42" t="n">
-        <v>5.02370976227946</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3882,7 +3882,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>120.1006484492993</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>120.1006484492992</v>
       </c>
       <c r="T43" t="n">
-        <v>6.084173352475624</v>
+        <v>6.084173352475652</v>
       </c>
       <c r="U43" t="n">
-        <v>65.40674103755494</v>
+        <v>65.40674103755497</v>
       </c>
       <c r="V43" t="n">
-        <v>31.23762820864468</v>
+        <v>31.23762820864471</v>
       </c>
       <c r="W43" t="n">
-        <v>65.62298322140768</v>
+        <v>65.62298322140771</v>
       </c>
       <c r="X43" t="n">
-        <v>4.80964027385383</v>
+        <v>4.809640273853859</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>161.8338265482973</v>
       </c>
       <c r="C44" t="n">
-        <v>144.3728766558243</v>
+        <v>144.3728766558242</v>
       </c>
       <c r="D44" t="n">
-        <v>133.7830265054997</v>
+        <v>133.7830265054996</v>
       </c>
       <c r="E44" t="n">
         <v>161.0303549570785</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.40550832242723</v>
+        <v>30.40550832242682</v>
       </c>
       <c r="V44" t="n">
         <v>106.8522433549516</v>
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4065,16 +4065,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S45" t="n">
         <v>166.6979539789397</v>
@@ -4110,10 +4110,10 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U45" t="n">
-        <v>5.023709762279489</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V45" t="n">
-        <v>11.90057203424197</v>
+        <v>11.90057203424195</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4122,7 +4122,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>21.26213281212586</v>
+        <v>57.91189924493638</v>
       </c>
     </row>
     <row r="46">
@@ -4186,19 +4186,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.084173352475652</v>
+        <v>126.1848218017749</v>
       </c>
       <c r="U46" t="n">
-        <v>65.40674103755497</v>
+        <v>65.40674103755494</v>
       </c>
       <c r="V46" t="n">
-        <v>31.23762820864471</v>
+        <v>31.23762820864468</v>
       </c>
       <c r="W46" t="n">
-        <v>185.7236316707068</v>
+        <v>65.62298322140768</v>
       </c>
       <c r="X46" t="n">
-        <v>4.809640273853859</v>
+        <v>4.80964027385383</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>635.9845463908093</v>
+        <v>332.5671298030015</v>
       </c>
       <c r="C11" t="n">
-        <v>635.9845463908093</v>
+        <v>96.65168461280462</v>
       </c>
       <c r="D11" t="n">
-        <v>410.7659195342735</v>
+        <v>96.65168461280462</v>
       </c>
       <c r="E11" t="n">
-        <v>410.7659195342735</v>
+        <v>96.65168461280462</v>
       </c>
       <c r="F11" t="n">
-        <v>410.7659195342735</v>
+        <v>96.65168461280462</v>
       </c>
       <c r="G11" t="n">
-        <v>124.8219618528661</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H11" t="n">
         <v>30.433907073934</v>
@@ -5039,16 +5039,16 @@
         <v>30.433907073934</v>
       </c>
       <c r="J11" t="n">
-        <v>60.7526010802095</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K11" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326558</v>
       </c>
       <c r="L11" t="n">
-        <v>485.3806706550284</v>
+        <v>485.3806706550286</v>
       </c>
       <c r="M11" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241027</v>
       </c>
       <c r="N11" t="n">
         <v>1084.01979112136</v>
@@ -5066,25 +5066,25 @@
         <v>1521.6953536967</v>
       </c>
       <c r="S11" t="n">
-        <v>1521.6953536967</v>
+        <v>1455.157131708068</v>
       </c>
       <c r="T11" t="n">
-        <v>1431.61109704774</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="U11" t="n">
-        <v>1310.814205729662</v>
+        <v>1244.275983741029</v>
       </c>
       <c r="V11" t="n">
-        <v>1112.798390136306</v>
+        <v>1046.260168147673</v>
       </c>
       <c r="W11" t="n">
-        <v>893.0768066164063</v>
+        <v>826.5385846277736</v>
       </c>
       <c r="X11" t="n">
-        <v>893.0768066164063</v>
+        <v>586.1198981169086</v>
       </c>
       <c r="Y11" t="n">
-        <v>635.9845463908093</v>
+        <v>586.1198981169086</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>516.0326877100152</v>
+        <v>132.8177251628268</v>
       </c>
       <c r="C12" t="n">
-        <v>474.6267301791029</v>
+        <v>91.4117676319146</v>
       </c>
       <c r="D12" t="n">
-        <v>325.6923205178517</v>
+        <v>75.5244297208781</v>
       </c>
       <c r="E12" t="n">
-        <v>263.3468047614242</v>
+        <v>49.33404646563737</v>
       </c>
       <c r="F12" t="n">
-        <v>116.8122467883092</v>
+        <v>35.84656024273711</v>
       </c>
       <c r="G12" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H12" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I12" t="n">
         <v>30.433907073934</v>
       </c>
       <c r="J12" t="n">
-        <v>54.79813383722132</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K12" t="n">
-        <v>223.0613211674322</v>
+        <v>168.8296018649924</v>
       </c>
       <c r="L12" t="n">
-        <v>510.7163377867618</v>
+        <v>456.484618484322</v>
       </c>
       <c r="M12" t="n">
-        <v>510.7163377867618</v>
+        <v>833.1042185242553</v>
       </c>
       <c r="N12" t="n">
-        <v>873.0305803211014</v>
+        <v>1209.723818564189</v>
       </c>
       <c r="O12" t="n">
-        <v>1185.002115453613</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="P12" t="n">
-        <v>1418.383708616427</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="Q12" t="n">
         <v>1521.6953536967</v>
@@ -5145,25 +5145,25 @@
         <v>1521.6953536967</v>
       </c>
       <c r="S12" t="n">
-        <v>1486.360653751016</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T12" t="n">
-        <v>1285.266784364163</v>
+        <v>1152.219712613949</v>
       </c>
       <c r="U12" t="n">
-        <v>1057.061001659656</v>
+        <v>924.0139299094409</v>
       </c>
       <c r="V12" t="n">
-        <v>954.9559651781276</v>
+        <v>704.7880743811536</v>
       </c>
       <c r="W12" t="n">
-        <v>833.7656802001407</v>
+        <v>450.550717652952</v>
       </c>
       <c r="X12" t="n">
-        <v>758.9612517448226</v>
+        <v>375.746289197634</v>
       </c>
       <c r="Y12" t="n">
-        <v>551.2009529798686</v>
+        <v>301.0330621828949</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.451641485803</v>
+        <v>194.4516414858026</v>
       </c>
       <c r="C13" t="n">
-        <v>158.5625303081108</v>
+        <v>158.5625303081105</v>
       </c>
       <c r="D13" t="n">
-        <v>141.4929626459898</v>
+        <v>141.4929626459895</v>
       </c>
       <c r="E13" t="n">
-        <v>126.6269408138114</v>
+        <v>126.6269408138112</v>
       </c>
       <c r="F13" t="n">
-        <v>112.7840650661158</v>
+        <v>112.7840650661156</v>
       </c>
       <c r="G13" t="n">
-        <v>76.37056042946796</v>
+        <v>76.37056042946784</v>
       </c>
       <c r="H13" t="n">
-        <v>47.5725409718431</v>
+        <v>47.57254097184304</v>
       </c>
       <c r="I13" t="n">
         <v>30.433907073934</v>
       </c>
       <c r="J13" t="n">
-        <v>84.15679020220475</v>
+        <v>84.1567902022048</v>
       </c>
       <c r="K13" t="n">
-        <v>218.3899330701334</v>
+        <v>218.3899330701335</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3108706367663</v>
+        <v>409.2216288383617</v>
       </c>
       <c r="M13" t="n">
-        <v>598.8167744819579</v>
+        <v>598.8167744819571</v>
       </c>
       <c r="N13" t="n">
-        <v>806.9952085564983</v>
+        <v>806.9952085564975</v>
       </c>
       <c r="O13" t="n">
-        <v>993.2198425848507</v>
+        <v>993.2198425848499</v>
       </c>
       <c r="P13" t="n">
-        <v>1017.467262206715</v>
+        <v>1017.467262206714</v>
       </c>
       <c r="Q13" t="n">
         <v>1081.219273571223</v>
       </c>
       <c r="R13" t="n">
-        <v>1045.401516617311</v>
+        <v>1045.40151661731</v>
       </c>
       <c r="S13" t="n">
-        <v>956.1300939856995</v>
+        <v>956.1300939856987</v>
       </c>
       <c r="T13" t="n">
-        <v>859.9002076877739</v>
+        <v>859.9002076877731</v>
       </c>
       <c r="U13" t="n">
-        <v>703.7485358493641</v>
+        <v>703.7485358493634</v>
       </c>
       <c r="V13" t="n">
-        <v>582.111119393692</v>
+        <v>582.1111193936913</v>
       </c>
       <c r="W13" t="n">
-        <v>425.7410211069461</v>
+        <v>425.7410211069455</v>
       </c>
       <c r="X13" t="n">
-        <v>330.7985419591434</v>
+        <v>330.7985419591429</v>
       </c>
       <c r="Y13" t="n">
-        <v>243.053034565828</v>
+        <v>243.0530345658276</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>763.1698612899398</v>
+        <v>586.1198981169089</v>
       </c>
       <c r="C14" t="n">
-        <v>527.2544160997428</v>
+        <v>586.1198981169089</v>
       </c>
       <c r="D14" t="n">
-        <v>302.035789243207</v>
+        <v>376.3987193274895</v>
       </c>
       <c r="E14" t="n">
-        <v>49.29460839517724</v>
+        <v>376.3987193274895</v>
       </c>
       <c r="F14" t="n">
-        <v>30.433907073934</v>
+        <v>376.3987193274895</v>
       </c>
       <c r="G14" t="n">
-        <v>30.433907073934</v>
+        <v>90.45476164608226</v>
       </c>
       <c r="H14" t="n">
-        <v>30.433907073934</v>
+        <v>90.45476164608226</v>
       </c>
       <c r="I14" t="n">
         <v>30.433907073934</v>
       </c>
       <c r="J14" t="n">
-        <v>60.75260108020959</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K14" t="n">
         <v>226.9372683326557</v>
       </c>
       <c r="L14" t="n">
-        <v>485.3806706550284</v>
+        <v>485.3806706550285</v>
       </c>
       <c r="M14" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241027</v>
       </c>
       <c r="N14" t="n">
         <v>1084.019791121359</v>
@@ -5306,22 +5306,22 @@
         <v>1455.157131708068</v>
       </c>
       <c r="T14" t="n">
-        <v>1455.157131708068</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="U14" t="n">
-        <v>1455.157131708068</v>
+        <v>1244.275983741029</v>
       </c>
       <c r="V14" t="n">
-        <v>1257.141316114712</v>
+        <v>1046.260168147673</v>
       </c>
       <c r="W14" t="n">
-        <v>1257.141316114712</v>
+        <v>826.538584627774</v>
       </c>
       <c r="X14" t="n">
-        <v>1016.722629603847</v>
+        <v>586.1198981169089</v>
       </c>
       <c r="Y14" t="n">
-        <v>1016.722629603847</v>
+        <v>586.1198981169089</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>479.8775552088285</v>
+        <v>382.985615959801</v>
       </c>
       <c r="C15" t="n">
-        <v>438.4715976779162</v>
+        <v>341.5796584288887</v>
       </c>
       <c r="D15" t="n">
-        <v>289.537188016665</v>
+        <v>192.6452487676374</v>
       </c>
       <c r="E15" t="n">
-        <v>130.2997330112095</v>
+        <v>49.33404646563737</v>
       </c>
       <c r="F15" t="n">
-        <v>116.8122467883092</v>
+        <v>35.84656024273711</v>
       </c>
       <c r="G15" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H15" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I15" t="n">
         <v>30.433907073934</v>
@@ -5358,22 +5358,22 @@
         <v>54.79813383722132</v>
       </c>
       <c r="K15" t="n">
-        <v>223.0613211674322</v>
+        <v>54.79813383722132</v>
       </c>
       <c r="L15" t="n">
-        <v>510.7163377867618</v>
+        <v>119.7913802412351</v>
       </c>
       <c r="M15" t="n">
-        <v>887.335937826695</v>
+        <v>496.4109802811683</v>
       </c>
       <c r="N15" t="n">
-        <v>1263.955537866628</v>
+        <v>873.0305803211016</v>
       </c>
       <c r="O15" t="n">
-        <v>1521.6953536967</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P15" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q15" t="n">
         <v>1521.6953536967</v>
@@ -5382,25 +5382,25 @@
         <v>1521.6953536967</v>
       </c>
       <c r="S15" t="n">
-        <v>1486.360653751016</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T15" t="n">
-        <v>1418.313856114378</v>
+        <v>1285.266784364163</v>
       </c>
       <c r="U15" t="n">
-        <v>1190.10807340987</v>
+        <v>1057.061001659656</v>
       </c>
       <c r="V15" t="n">
-        <v>1088.003036928342</v>
+        <v>821.908893427913</v>
       </c>
       <c r="W15" t="n">
-        <v>833.7656802001407</v>
+        <v>700.7186084499261</v>
       </c>
       <c r="X15" t="n">
-        <v>722.8061192436357</v>
+        <v>492.8671082443933</v>
       </c>
       <c r="Y15" t="n">
-        <v>515.0458204786819</v>
+        <v>418.1538812296542</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.451641485803</v>
+        <v>194.4516414858026</v>
       </c>
       <c r="C16" t="n">
-        <v>158.5625303081108</v>
+        <v>158.5625303081105</v>
       </c>
       <c r="D16" t="n">
-        <v>141.4929626459898</v>
+        <v>141.4929626459895</v>
       </c>
       <c r="E16" t="n">
-        <v>126.6269408138114</v>
+        <v>126.6269408138112</v>
       </c>
       <c r="F16" t="n">
-        <v>112.7840650661158</v>
+        <v>112.7840650661156</v>
       </c>
       <c r="G16" t="n">
-        <v>76.37056042946796</v>
+        <v>76.37056042946784</v>
       </c>
       <c r="H16" t="n">
-        <v>47.5725409718431</v>
+        <v>47.57254097184304</v>
       </c>
       <c r="I16" t="n">
         <v>30.433907073934</v>
       </c>
       <c r="J16" t="n">
-        <v>69.2460320006096</v>
+        <v>84.1567902022048</v>
       </c>
       <c r="K16" t="n">
-        <v>203.4791748685382</v>
+        <v>218.3899330701335</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3108706367663</v>
+        <v>394.3108706367653</v>
       </c>
       <c r="M16" t="n">
-        <v>598.8167744819579</v>
+        <v>598.8167744819569</v>
       </c>
       <c r="N16" t="n">
-        <v>806.9952085564983</v>
+        <v>676.5957735341119</v>
       </c>
       <c r="O16" t="n">
-        <v>993.2198425848507</v>
+        <v>862.8204075624643</v>
       </c>
       <c r="P16" t="n">
-        <v>1017.467262206715</v>
+        <v>1017.467262206714</v>
       </c>
       <c r="Q16" t="n">
         <v>1081.219273571223</v>
       </c>
       <c r="R16" t="n">
-        <v>1045.401516617311</v>
+        <v>1045.40151661731</v>
       </c>
       <c r="S16" t="n">
-        <v>956.1300939856995</v>
+        <v>956.1300939856987</v>
       </c>
       <c r="T16" t="n">
-        <v>859.9002076877739</v>
+        <v>859.9002076877731</v>
       </c>
       <c r="U16" t="n">
-        <v>703.7485358493641</v>
+        <v>703.7485358493634</v>
       </c>
       <c r="V16" t="n">
-        <v>582.111119393692</v>
+        <v>582.1111193936913</v>
       </c>
       <c r="W16" t="n">
-        <v>425.7410211069461</v>
+        <v>425.7410211069455</v>
       </c>
       <c r="X16" t="n">
-        <v>330.7985419591434</v>
+        <v>330.7985419591429</v>
       </c>
       <c r="Y16" t="n">
-        <v>243.053034565828</v>
+        <v>243.0530345658276</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.4784887810895</v>
+        <v>872.4784887810904</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852414</v>
+        <v>743.2932336852423</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230545</v>
+        <v>624.8047969230554</v>
       </c>
       <c r="E17" t="n">
-        <v>478.7938061693739</v>
+        <v>478.7938061693747</v>
       </c>
       <c r="F17" t="n">
-        <v>307.5851632243298</v>
+        <v>307.5851632243307</v>
       </c>
       <c r="G17" t="n">
         <v>128.3713956372717</v>
@@ -5510,19 +5510,19 @@
         <v>30.433907073934</v>
       </c>
       <c r="I17" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393409</v>
       </c>
       <c r="J17" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108020967</v>
       </c>
       <c r="K17" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326558</v>
       </c>
       <c r="L17" t="n">
-        <v>485.3806706550284</v>
+        <v>485.3806706550285</v>
       </c>
       <c r="M17" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241025</v>
       </c>
       <c r="N17" t="n">
         <v>1084.019791121359</v>
@@ -5546,19 +5546,19 @@
         <v>1521.6953536967</v>
       </c>
       <c r="U17" t="n">
-        <v>1507.62865247297</v>
+        <v>1507.628652472971</v>
       </c>
       <c r="V17" t="n">
-        <v>1416.343026973963</v>
+        <v>1416.343026973964</v>
       </c>
       <c r="W17" t="n">
-        <v>1303.351633548412</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X17" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y17" t="n">
-        <v>1019.301067000648</v>
+        <v>1019.301067000649</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>426.1790654821574</v>
+        <v>257.934151592621</v>
       </c>
       <c r="C18" t="n">
-        <v>426.1790654821574</v>
+        <v>257.934151592621</v>
       </c>
       <c r="D18" t="n">
-        <v>426.1790654821574</v>
+        <v>257.934151592621</v>
       </c>
       <c r="E18" t="n">
-        <v>426.1790654821574</v>
+        <v>257.934151592621</v>
       </c>
       <c r="F18" t="n">
-        <v>279.6445075090423</v>
+        <v>111.399593619506</v>
       </c>
       <c r="G18" t="n">
-        <v>141.1847825900245</v>
+        <v>111.399593619506</v>
       </c>
       <c r="H18" t="n">
-        <v>30.433907073934</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I18" t="n">
         <v>30.433907073934</v>
@@ -5595,16 +5595,16 @@
         <v>54.79813383722132</v>
       </c>
       <c r="K18" t="n">
-        <v>54.79813383722132</v>
+        <v>223.0613211674322</v>
       </c>
       <c r="L18" t="n">
-        <v>342.4531504565509</v>
+        <v>510.7163377867618</v>
       </c>
       <c r="M18" t="n">
-        <v>496.4109802811681</v>
+        <v>808.3825154136799</v>
       </c>
       <c r="N18" t="n">
-        <v>873.0305803211014</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="O18" t="n">
         <v>1185.002115453613</v>
@@ -5619,25 +5619,25 @@
         <v>1437.357835893787</v>
       </c>
       <c r="S18" t="n">
-        <v>1268.976064197888</v>
+        <v>1437.357835893787</v>
       </c>
       <c r="T18" t="n">
-        <v>1268.976064197888</v>
+        <v>1319.579273403064</v>
       </c>
       <c r="U18" t="n">
-        <v>1040.77028149338</v>
+        <v>1091.373490698557</v>
       </c>
       <c r="V18" t="n">
-        <v>805.6181732616376</v>
+        <v>856.2213824668139</v>
       </c>
       <c r="W18" t="n">
-        <v>551.380816533436</v>
+        <v>841.7612875831758</v>
       </c>
       <c r="X18" t="n">
-        <v>551.380816533436</v>
+        <v>633.9097873776429</v>
       </c>
       <c r="Y18" t="n">
-        <v>426.1790654821574</v>
+        <v>426.149488612689</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>199.3700900018409</v>
+        <v>30.433907073934</v>
       </c>
       <c r="C19" t="n">
         <v>30.433907073934</v>
@@ -5674,7 +5674,7 @@
         <v>30.433907073934</v>
       </c>
       <c r="K19" t="n">
-        <v>34.26761491947721</v>
+        <v>34.2676149194772</v>
       </c>
       <c r="L19" t="n">
         <v>94.69987566531984</v>
@@ -5695,28 +5695,28 @@
         <v>326.6579621681119</v>
       </c>
       <c r="R19" t="n">
-        <v>326.6579621681119</v>
+        <v>157.7931334639843</v>
       </c>
       <c r="S19" t="n">
-        <v>326.6579621681119</v>
+        <v>157.7931334639843</v>
       </c>
       <c r="T19" t="n">
-        <v>326.6579621681119</v>
+        <v>157.7931334639843</v>
       </c>
       <c r="U19" t="n">
-        <v>277.2364804240509</v>
+        <v>108.3716517199234</v>
       </c>
       <c r="V19" t="n">
-        <v>262.3292540627275</v>
+        <v>93.46442535860002</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6893458703304</v>
+        <v>30.433907073934</v>
       </c>
       <c r="X19" t="n">
-        <v>212.6893458703304</v>
+        <v>30.433907073934</v>
       </c>
       <c r="Y19" t="n">
-        <v>199.3700900018409</v>
+        <v>30.433907073934</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>872.4784887810899</v>
+        <v>872.4784887810904</v>
       </c>
       <c r="C20" t="n">
-        <v>743.2932336852416</v>
+        <v>743.2932336852423</v>
       </c>
       <c r="D20" t="n">
-        <v>624.8047969230547</v>
+        <v>624.8047969230554</v>
       </c>
       <c r="E20" t="n">
-        <v>478.793806169374</v>
+        <v>478.7938061693747</v>
       </c>
       <c r="F20" t="n">
-        <v>307.58516322433</v>
+        <v>307.5851632243307</v>
       </c>
       <c r="G20" t="n">
-        <v>128.3713956372719</v>
+        <v>128.3713956372717</v>
       </c>
       <c r="H20" t="n">
         <v>30.433907073934</v>
@@ -5750,16 +5750,16 @@
         <v>30.433907073934</v>
       </c>
       <c r="J20" t="n">
-        <v>60.75260108020959</v>
+        <v>60.75260108020958</v>
       </c>
       <c r="K20" t="n">
         <v>226.9372683326557</v>
       </c>
       <c r="L20" t="n">
-        <v>485.3806706550284</v>
+        <v>485.3806706550285</v>
       </c>
       <c r="M20" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241025</v>
       </c>
       <c r="N20" t="n">
         <v>1084.019791121359</v>
@@ -5783,16 +5783,16 @@
         <v>1521.6953536967</v>
       </c>
       <c r="U20" t="n">
-        <v>1507.62865247297</v>
+        <v>1507.628652472971</v>
       </c>
       <c r="V20" t="n">
-        <v>1416.343026973963</v>
+        <v>1416.343026973964</v>
       </c>
       <c r="W20" t="n">
         <v>1303.351633548413</v>
       </c>
       <c r="X20" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y20" t="n">
         <v>1019.301067000648</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>723.009388046999</v>
+        <v>436.6537502243908</v>
       </c>
       <c r="C21" t="n">
-        <v>548.556358765872</v>
+        <v>436.6537502243908</v>
       </c>
       <c r="D21" t="n">
-        <v>399.6219491046207</v>
+        <v>287.7193405631396</v>
       </c>
       <c r="E21" t="n">
-        <v>240.3844940991652</v>
+        <v>287.7193405631396</v>
       </c>
       <c r="F21" t="n">
-        <v>93.84993612605021</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="G21" t="n">
-        <v>93.84993612605021</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="H21" t="n">
         <v>30.433907073934</v>
@@ -5829,52 +5829,52 @@
         <v>30.433907073934</v>
       </c>
       <c r="J21" t="n">
-        <v>30.433907073934</v>
+        <v>54.79813383722132</v>
       </c>
       <c r="K21" t="n">
-        <v>198.6970944041448</v>
+        <v>223.0613211674322</v>
       </c>
       <c r="L21" t="n">
-        <v>486.3521110234744</v>
+        <v>510.7163377867618</v>
       </c>
       <c r="M21" t="n">
-        <v>496.4109802811681</v>
+        <v>887.335937826695</v>
       </c>
       <c r="N21" t="n">
-        <v>873.0305803211014</v>
+        <v>887.335937826695</v>
       </c>
       <c r="O21" t="n">
-        <v>1185.002115453613</v>
+        <v>1199.307472959207</v>
       </c>
       <c r="P21" t="n">
-        <v>1418.383708616427</v>
+        <v>1432.689066122021</v>
       </c>
       <c r="Q21" t="n">
         <v>1521.6953536967</v>
       </c>
       <c r="R21" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893787</v>
       </c>
       <c r="S21" t="n">
-        <v>1353.313582000801</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T21" t="n">
-        <v>1353.313582000801</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U21" t="n">
-        <v>1353.313582000801</v>
+        <v>839.6764121065274</v>
       </c>
       <c r="V21" t="n">
-        <v>1353.313582000801</v>
+        <v>839.6764121065274</v>
       </c>
       <c r="W21" t="n">
-        <v>1099.0762252726</v>
+        <v>604.8690872444588</v>
       </c>
       <c r="X21" t="n">
-        <v>891.2247250670671</v>
+        <v>604.8690872444588</v>
       </c>
       <c r="Y21" t="n">
-        <v>891.2247250670671</v>
+        <v>604.8690872444588</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.433907073934</v>
+        <v>31.04088104009071</v>
       </c>
       <c r="C22" t="n">
         <v>30.433907073934</v>
@@ -5911,7 +5911,7 @@
         <v>30.433907073934</v>
       </c>
       <c r="K22" t="n">
-        <v>34.26761491947721</v>
+        <v>34.2676149194772</v>
       </c>
       <c r="L22" t="n">
         <v>94.69987566531984</v>
@@ -5941,19 +5941,19 @@
         <v>326.6579621681119</v>
       </c>
       <c r="U22" t="n">
-        <v>94.98104162765442</v>
+        <v>277.2364804240509</v>
       </c>
       <c r="V22" t="n">
-        <v>80.07381526633108</v>
+        <v>262.3292540627275</v>
       </c>
       <c r="W22" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703304</v>
       </c>
       <c r="X22" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703304</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703304</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>872.4784887810897</v>
+        <v>872.4784887810904</v>
       </c>
       <c r="C23" t="n">
-        <v>743.2932336852416</v>
+        <v>743.2932336852423</v>
       </c>
       <c r="D23" t="n">
-        <v>624.8047969230547</v>
+        <v>624.8047969230554</v>
       </c>
       <c r="E23" t="n">
-        <v>478.793806169374</v>
+        <v>478.7938061693747</v>
       </c>
       <c r="F23" t="n">
-        <v>307.58516322433</v>
+        <v>307.5851632243307</v>
       </c>
       <c r="G23" t="n">
         <v>128.3713956372717</v>
@@ -5987,7 +5987,7 @@
         <v>30.433907073934</v>
       </c>
       <c r="J23" t="n">
-        <v>60.75260108020959</v>
+        <v>60.75260108020958</v>
       </c>
       <c r="K23" t="n">
         <v>226.9372683326557</v>
@@ -6002,7 +6002,7 @@
         <v>1084.019791121359</v>
       </c>
       <c r="O23" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P23" t="n">
         <v>1477.958695736267</v>
@@ -6020,19 +6020,19 @@
         <v>1521.6953536967</v>
       </c>
       <c r="U23" t="n">
-        <v>1507.62865247297</v>
+        <v>1507.628652472971</v>
       </c>
       <c r="V23" t="n">
-        <v>1416.343026973963</v>
+        <v>1416.343026973964</v>
       </c>
       <c r="W23" t="n">
         <v>1303.351633548413</v>
       </c>
       <c r="X23" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y23" t="n">
-        <v>1019.301067000648</v>
+        <v>1019.301067000649</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>651.5185259407856</v>
+        <v>474.875266876607</v>
       </c>
       <c r="C24" t="n">
-        <v>477.0654966596586</v>
+        <v>300.42223759548</v>
       </c>
       <c r="D24" t="n">
-        <v>328.1310869984073</v>
+        <v>300.42223759548</v>
       </c>
       <c r="E24" t="n">
-        <v>168.8936319929519</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="F24" t="n">
-        <v>168.8936319929519</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="G24" t="n">
-        <v>30.433907073934</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="H24" t="n">
         <v>30.433907073934</v>
@@ -6069,16 +6069,16 @@
         <v>54.79813383722132</v>
       </c>
       <c r="K24" t="n">
-        <v>223.0613211674322</v>
+        <v>54.79813383722132</v>
       </c>
       <c r="L24" t="n">
-        <v>223.0613211674322</v>
+        <v>342.4531504565509</v>
       </c>
       <c r="M24" t="n">
-        <v>496.4109802811681</v>
+        <v>719.0727504964842</v>
       </c>
       <c r="N24" t="n">
-        <v>873.0305803211014</v>
+        <v>1095.692350536418</v>
       </c>
       <c r="O24" t="n">
         <v>1185.002115453613</v>
@@ -6090,28 +6090,28 @@
         <v>1521.6953536967</v>
       </c>
       <c r="R24" t="n">
-        <v>1437.357835893787</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S24" t="n">
-        <v>1268.976064197888</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T24" t="n">
-        <v>1067.882194811035</v>
+        <v>1152.219712613949</v>
       </c>
       <c r="U24" t="n">
-        <v>1067.882194811035</v>
+        <v>1152.219712613949</v>
       </c>
       <c r="V24" t="n">
-        <v>834.1939578444918</v>
+        <v>917.0676043822061</v>
       </c>
       <c r="W24" t="n">
-        <v>819.7338629608537</v>
+        <v>902.607509498568</v>
       </c>
       <c r="X24" t="n">
-        <v>819.7338629608537</v>
+        <v>694.7560092930352</v>
       </c>
       <c r="Y24" t="n">
-        <v>819.7338629608537</v>
+        <v>486.9957105280812</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>212.6893458703304</v>
+        <v>30.433907073934</v>
       </c>
       <c r="C25" t="n">
-        <v>212.6893458703304</v>
+        <v>30.433907073934</v>
       </c>
       <c r="D25" t="n">
-        <v>212.6893458703304</v>
+        <v>30.433907073934</v>
       </c>
       <c r="E25" t="n">
-        <v>212.6893458703304</v>
+        <v>30.433907073934</v>
       </c>
       <c r="F25" t="n">
-        <v>192.2789982817736</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G25" t="n">
-        <v>192.2789982817736</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H25" t="n">
         <v>30.433907073934</v>
@@ -6148,7 +6148,7 @@
         <v>30.433907073934</v>
       </c>
       <c r="K25" t="n">
-        <v>34.26761491947721</v>
+        <v>34.2676149194772</v>
       </c>
       <c r="L25" t="n">
         <v>94.69987566531984</v>
@@ -6172,25 +6172,25 @@
         <v>326.6579621681119</v>
       </c>
       <c r="S25" t="n">
-        <v>326.6579621681119</v>
+        <v>144.4025233717154</v>
       </c>
       <c r="T25" t="n">
-        <v>326.6579621681119</v>
+        <v>144.4025233717154</v>
       </c>
       <c r="U25" t="n">
-        <v>277.2364804240509</v>
+        <v>94.98104162765442</v>
       </c>
       <c r="V25" t="n">
-        <v>262.3292540627275</v>
+        <v>80.07381526633108</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6893458703304</v>
+        <v>30.433907073934</v>
       </c>
       <c r="X25" t="n">
-        <v>212.6893458703304</v>
+        <v>30.433907073934</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.6893458703304</v>
+        <v>30.433907073934</v>
       </c>
     </row>
     <row r="26">
@@ -6209,34 +6209,34 @@
         <v>1044.075666754195</v>
       </c>
       <c r="E26" t="n">
-        <v>809.8470710028719</v>
+        <v>809.8470710028718</v>
       </c>
       <c r="F26" t="n">
-        <v>550.4208230601855</v>
+        <v>550.4208230601854</v>
       </c>
       <c r="G26" t="n">
         <v>282.9894504754847</v>
       </c>
       <c r="H26" t="n">
-        <v>96.83435691450505</v>
+        <v>96.83435691450461</v>
       </c>
       <c r="I26" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J26" t="n">
         <v>234.1884011210062</v>
       </c>
       <c r="K26" t="n">
-        <v>548.9166880491196</v>
+        <v>548.9166880491198</v>
       </c>
       <c r="L26" t="n">
-        <v>955.9037100471597</v>
+        <v>955.90371004716</v>
       </c>
       <c r="M26" t="n">
         <v>1408.621956991901</v>
       </c>
       <c r="N26" t="n">
-        <v>1851.630069864826</v>
+        <v>1851.630069864825</v>
       </c>
       <c r="O26" t="n">
         <v>2233.040522606063</v>
@@ -6245,7 +6245,7 @@
         <v>2542.656213831068</v>
       </c>
       <c r="Q26" t="n">
-        <v>2734.936491467169</v>
+        <v>2734.936491467168</v>
       </c>
       <c r="R26" t="n">
         <v>2766.304371953158</v>
@@ -6254,7 +6254,7 @@
         <v>2718.278735061232</v>
       </c>
       <c r="T26" t="n">
-        <v>2646.707063508978</v>
+        <v>2646.707063508979</v>
       </c>
       <c r="U26" t="n">
         <v>2544.422757287607</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>575.708034913502</v>
+        <v>237.4569148787245</v>
       </c>
       <c r="C27" t="n">
-        <v>552.8146624792962</v>
+        <v>214.5635424445186</v>
       </c>
       <c r="D27" t="n">
-        <v>552.8146624792962</v>
+        <v>214.5635424445186</v>
       </c>
       <c r="E27" t="n">
-        <v>393.5772074738406</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="F27" t="n">
-        <v>247.0426495007256</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="G27" t="n">
-        <v>247.0426495007256</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="H27" t="n">
-        <v>136.2917739846351</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="I27" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J27" t="n">
-        <v>79.69031420235049</v>
+        <v>79.69031420235048</v>
       </c>
       <c r="K27" t="n">
         <v>247.9535015325613</v>
@@ -6339,16 +6339,16 @@
         <v>1303.539661529372</v>
       </c>
       <c r="V27" t="n">
-        <v>1110.653213938416</v>
+        <v>1068.38755329763</v>
       </c>
       <c r="W27" t="n">
-        <v>1007.975514057136</v>
+        <v>814.1501965694281</v>
       </c>
       <c r="X27" t="n">
-        <v>800.1240138516027</v>
+        <v>606.2986963638953</v>
       </c>
       <c r="Y27" t="n">
-        <v>592.3637150866489</v>
+        <v>398.5383975989413</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91.32388724474218</v>
+        <v>91.32388724474201</v>
       </c>
       <c r="C28" t="n">
-        <v>73.94736116375641</v>
+        <v>73.94736116375627</v>
       </c>
       <c r="D28" t="n">
-        <v>75.36166255139358</v>
+        <v>75.36166255139347</v>
       </c>
       <c r="E28" t="n">
-        <v>78.93565920695751</v>
+        <v>78.93565920695742</v>
       </c>
       <c r="F28" t="n">
-        <v>83.51244133992299</v>
+        <v>83.51244133992293</v>
       </c>
       <c r="G28" t="n">
-        <v>65.61152179998159</v>
+        <v>65.61152179998156</v>
       </c>
       <c r="H28" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="I28" t="n">
-        <v>56.67269700900443</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J28" t="n">
-        <v>56.67269700900443</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="K28" t="n">
-        <v>60.50640485454764</v>
+        <v>207.7034149602738</v>
       </c>
       <c r="L28" t="n">
-        <v>120.9386656003903</v>
+        <v>416.6792953817838</v>
       </c>
       <c r="M28" t="n">
-        <v>207.9957767528166</v>
+        <v>639.3293838802574</v>
       </c>
       <c r="N28" t="n">
-        <v>434.3183954806389</v>
+        <v>717.1083829324124</v>
       </c>
       <c r="O28" t="n">
-        <v>638.6872141622732</v>
+        <v>772.9335819383792</v>
       </c>
       <c r="P28" t="n">
-        <v>811.4782534598047</v>
+        <v>811.4782534598043</v>
       </c>
       <c r="Q28" t="n">
-        <v>811.4782534598047</v>
+        <v>811.4782534598043</v>
       </c>
       <c r="R28" t="n">
-        <v>794.1730816025984</v>
+        <v>794.1730816025979</v>
       </c>
       <c r="S28" t="n">
-        <v>723.4142440676937</v>
+        <v>723.4142440676933</v>
       </c>
       <c r="T28" t="n">
-        <v>645.6969428664745</v>
+        <v>645.696942866474</v>
       </c>
       <c r="U28" t="n">
-        <v>508.0578561247711</v>
+        <v>508.0578561247708</v>
       </c>
       <c r="V28" t="n">
-        <v>404.9330247658054</v>
+        <v>404.933024765805</v>
       </c>
       <c r="W28" t="n">
-        <v>267.0755115757659</v>
+        <v>267.0755115757656</v>
       </c>
       <c r="X28" t="n">
-        <v>190.6456175246697</v>
+        <v>190.6456175246695</v>
       </c>
       <c r="Y28" t="n">
-        <v>121.4126952280607</v>
+        <v>121.4126952280605</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>1468.184568607515</v>
       </c>
       <c r="C29" t="n">
-        <v>1250.781708514025</v>
+        <v>1250.781708514024</v>
       </c>
       <c r="D29" t="n">
         <v>1044.075666754195</v>
@@ -6455,31 +6455,31 @@
         <v>282.989450475485</v>
       </c>
       <c r="H29" t="n">
-        <v>96.83435691450504</v>
+        <v>96.83435691450501</v>
       </c>
       <c r="I29" t="n">
         <v>55.32608743906319</v>
       </c>
       <c r="J29" t="n">
-        <v>234.1884011210066</v>
+        <v>234.1884011210058</v>
       </c>
       <c r="K29" t="n">
-        <v>548.9166880491201</v>
+        <v>548.9166880491193</v>
       </c>
       <c r="L29" t="n">
-        <v>955.9037100471602</v>
+        <v>955.9037100471595</v>
       </c>
       <c r="M29" t="n">
-        <v>1408.621956991902</v>
+        <v>1408.621956991901</v>
       </c>
       <c r="N29" t="n">
-        <v>1851.630069864826</v>
+        <v>1851.630069864825</v>
       </c>
       <c r="O29" t="n">
-        <v>2233.040522606064</v>
+        <v>2233.040522606063</v>
       </c>
       <c r="P29" t="n">
-        <v>2542.656213831069</v>
+        <v>2542.656213831068</v>
       </c>
       <c r="Q29" t="n">
         <v>2734.93649146717</v>
@@ -6494,7 +6494,7 @@
         <v>2646.707063508979</v>
       </c>
       <c r="U29" t="n">
-        <v>2544.422757287607</v>
+        <v>2544.422757287608</v>
       </c>
       <c r="V29" t="n">
         <v>2364.919526790958</v>
@@ -6506,7 +6506,7 @@
         <v>1941.804426953606</v>
       </c>
       <c r="Y29" t="n">
-        <v>1703.224751824715</v>
+        <v>1703.224751824716</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1465.747799953251</v>
+        <v>381.8827174257945</v>
       </c>
       <c r="C30" t="n">
-        <v>1291.294770672124</v>
+        <v>207.4296881446675</v>
       </c>
       <c r="D30" t="n">
-        <v>1142.360361010873</v>
+        <v>207.4296881446675</v>
       </c>
       <c r="E30" t="n">
-        <v>983.122906005417</v>
+        <v>199.7518899861332</v>
       </c>
       <c r="F30" t="n">
-        <v>836.588348032302</v>
+        <v>55.32608743906319</v>
       </c>
       <c r="G30" t="n">
-        <v>836.0718562726777</v>
+        <v>55.32608743906319</v>
       </c>
       <c r="H30" t="n">
-        <v>836.0718562726777</v>
+        <v>55.32608743906319</v>
       </c>
       <c r="I30" t="n">
-        <v>836.0718562726777</v>
+        <v>55.32608743906319</v>
       </c>
       <c r="J30" t="n">
-        <v>860.436083035965</v>
+        <v>79.69031420235051</v>
       </c>
       <c r="K30" t="n">
-        <v>1028.699270366176</v>
+        <v>247.9535015325613</v>
       </c>
       <c r="L30" t="n">
-        <v>1316.354286985505</v>
+        <v>535.608518151891</v>
       </c>
       <c r="M30" t="n">
-        <v>1704.013345209968</v>
+        <v>923.2675763763536</v>
       </c>
       <c r="N30" t="n">
-        <v>2117.639598577561</v>
+        <v>1336.893829743946</v>
       </c>
       <c r="O30" t="n">
-        <v>2429.611133710072</v>
+        <v>1648.865364876458</v>
       </c>
       <c r="P30" t="n">
-        <v>2662.992726872887</v>
+        <v>1882.246958039272</v>
       </c>
       <c r="Q30" t="n">
-        <v>2766.304371953159</v>
+        <v>1985.558603119545</v>
       </c>
       <c r="R30" t="n">
-        <v>2681.966854150246</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S30" t="n">
-        <v>2665.144739301268</v>
+        <v>1732.839313620733</v>
       </c>
       <c r="T30" t="n">
-        <v>2615.610526761337</v>
+        <v>1531.74544423388</v>
       </c>
       <c r="U30" t="n">
-        <v>2387.404744056829</v>
+        <v>1303.539661529372</v>
       </c>
       <c r="V30" t="n">
-        <v>2152.252635825086</v>
+        <v>1068.38755329763</v>
       </c>
       <c r="W30" t="n">
-        <v>1898.015279096885</v>
+        <v>965.7098534163492</v>
       </c>
       <c r="X30" t="n">
-        <v>1690.163778891352</v>
+        <v>757.8583532108164</v>
       </c>
       <c r="Y30" t="n">
-        <v>1482.403480126398</v>
+        <v>550.0980544458625</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.73818863237923</v>
+        <v>91.32388724474188</v>
       </c>
       <c r="C31" t="n">
-        <v>75.36166255139349</v>
+        <v>73.94736116375617</v>
       </c>
       <c r="D31" t="n">
-        <v>75.36166255139349</v>
+        <v>75.36166255139339</v>
       </c>
       <c r="E31" t="n">
-        <v>78.93565920695745</v>
+        <v>78.93565920695737</v>
       </c>
       <c r="F31" t="n">
-        <v>83.51244133992296</v>
+        <v>83.5124413399229</v>
       </c>
       <c r="G31" t="n">
-        <v>65.61152179998159</v>
+        <v>65.61152179998156</v>
       </c>
       <c r="H31" t="n">
         <v>55.32608743906319</v>
@@ -6619,52 +6619,52 @@
         <v>55.32608743906319</v>
       </c>
       <c r="J31" t="n">
-        <v>127.1931552206159</v>
+        <v>55.32608743906319</v>
       </c>
       <c r="K31" t="n">
-        <v>279.5704827418265</v>
+        <v>207.7034149602738</v>
       </c>
       <c r="L31" t="n">
-        <v>340.0027434876692</v>
+        <v>282.432927605677</v>
       </c>
       <c r="M31" t="n">
-        <v>414.1092123104753</v>
+        <v>505.0830161041506</v>
       </c>
       <c r="N31" t="n">
-        <v>584.2763165439432</v>
+        <v>582.8620151563056</v>
       </c>
       <c r="O31" t="n">
-        <v>788.6451352255775</v>
+        <v>638.6872141622724</v>
       </c>
       <c r="P31" t="n">
-        <v>812.8925548474415</v>
+        <v>811.4782534598039</v>
       </c>
       <c r="Q31" t="n">
-        <v>812.8925548474415</v>
+        <v>811.4782534598039</v>
       </c>
       <c r="R31" t="n">
-        <v>795.5873829902351</v>
+        <v>794.1730816025976</v>
       </c>
       <c r="S31" t="n">
-        <v>724.8285454553305</v>
+        <v>723.4142440676929</v>
       </c>
       <c r="T31" t="n">
-        <v>647.1112442541113</v>
+        <v>645.6969428664738</v>
       </c>
       <c r="U31" t="n">
-        <v>509.472157512408</v>
+        <v>508.0578561247705</v>
       </c>
       <c r="V31" t="n">
-        <v>406.3473261534423</v>
+        <v>404.9330247658048</v>
       </c>
       <c r="W31" t="n">
-        <v>268.4898129634029</v>
+        <v>267.0755115757654</v>
       </c>
       <c r="X31" t="n">
-        <v>192.0599189123067</v>
+        <v>190.6456175246693</v>
       </c>
       <c r="Y31" t="n">
-        <v>122.8269966156978</v>
+        <v>121.4126952280604</v>
       </c>
     </row>
     <row r="32">
@@ -6692,13 +6692,13 @@
         <v>282.9894504754848</v>
       </c>
       <c r="H32" t="n">
-        <v>96.83435691450502</v>
+        <v>96.83435691450504</v>
       </c>
       <c r="I32" t="n">
-        <v>55.32608743906318</v>
+        <v>55.32608743906319</v>
       </c>
       <c r="J32" t="n">
-        <v>234.1884011210061</v>
+        <v>234.1884011210063</v>
       </c>
       <c r="K32" t="n">
         <v>548.9166880491198</v>
@@ -6731,7 +6731,7 @@
         <v>2646.707063508979</v>
       </c>
       <c r="U32" t="n">
-        <v>2544.422757287607</v>
+        <v>2544.422757287608</v>
       </c>
       <c r="V32" t="n">
         <v>2364.919526790958</v>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>613.8915690586628</v>
+        <v>533.4423742727156</v>
       </c>
       <c r="C33" t="n">
-        <v>439.4385397775358</v>
+        <v>510.5490018385098</v>
       </c>
       <c r="D33" t="n">
-        <v>290.5041301162845</v>
+        <v>442.0637869632057</v>
       </c>
       <c r="E33" t="n">
         <v>282.8263319577502</v>
@@ -6774,10 +6774,10 @@
         <v>136.2917739846352</v>
       </c>
       <c r="I33" t="n">
-        <v>55.32608743906318</v>
+        <v>55.32608743906319</v>
       </c>
       <c r="J33" t="n">
-        <v>79.69031420235049</v>
+        <v>79.69031420235051</v>
       </c>
       <c r="K33" t="n">
         <v>247.9535015325613</v>
@@ -6807,22 +6807,22 @@
         <v>1732.839313620733</v>
       </c>
       <c r="T33" t="n">
-        <v>1612.194639019827</v>
+        <v>1531.74544423388</v>
       </c>
       <c r="U33" t="n">
-        <v>1383.988856315319</v>
+        <v>1303.539661529372</v>
       </c>
       <c r="V33" t="n">
-        <v>1148.836748083577</v>
+        <v>1068.38755329763</v>
       </c>
       <c r="W33" t="n">
-        <v>894.5993913553751</v>
+        <v>965.7098534163492</v>
       </c>
       <c r="X33" t="n">
-        <v>838.3075479967636</v>
+        <v>757.8583532108164</v>
       </c>
       <c r="Y33" t="n">
-        <v>782.1069060787308</v>
+        <v>701.6577112927837</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.9006693777074</v>
+        <v>91.32388724474204</v>
       </c>
       <c r="C34" t="n">
-        <v>78.52414329672169</v>
+        <v>73.9473611637563</v>
       </c>
       <c r="D34" t="n">
-        <v>79.93844468435891</v>
+        <v>75.36166255139349</v>
       </c>
       <c r="E34" t="n">
-        <v>83.51244133992289</v>
+        <v>78.93565920695745</v>
       </c>
       <c r="F34" t="n">
-        <v>83.51244133992289</v>
+        <v>83.51244133992296</v>
       </c>
       <c r="G34" t="n">
-        <v>65.61152179998155</v>
+        <v>65.61152179998159</v>
       </c>
       <c r="H34" t="n">
-        <v>55.32608743906318</v>
+        <v>55.32608743906319</v>
       </c>
       <c r="I34" t="n">
-        <v>56.6726970090045</v>
+        <v>55.32608743906319</v>
       </c>
       <c r="J34" t="n">
-        <v>128.5397647905573</v>
+        <v>127.1931552206159</v>
       </c>
       <c r="K34" t="n">
-        <v>280.9170923117679</v>
+        <v>279.5704827418265</v>
       </c>
       <c r="L34" t="n">
-        <v>489.892972733278</v>
+        <v>488.5463631633366</v>
       </c>
       <c r="M34" t="n">
-        <v>658.2034179127835</v>
+        <v>562.6528319861427</v>
       </c>
       <c r="N34" t="n">
-        <v>735.9824169649385</v>
+        <v>640.4318310382977</v>
       </c>
       <c r="O34" t="n">
-        <v>791.8076159709054</v>
+        <v>705.3346378201495</v>
       </c>
       <c r="P34" t="n">
-        <v>816.0550355927694</v>
+        <v>729.5820574420135</v>
       </c>
       <c r="Q34" t="n">
-        <v>816.0550355927694</v>
+        <v>811.4782534598043</v>
       </c>
       <c r="R34" t="n">
-        <v>798.7498637355631</v>
+        <v>794.1730816025979</v>
       </c>
       <c r="S34" t="n">
-        <v>727.9910262006584</v>
+        <v>723.4142440676933</v>
       </c>
       <c r="T34" t="n">
-        <v>650.2737249994393</v>
+        <v>645.696942866474</v>
       </c>
       <c r="U34" t="n">
-        <v>512.634638257736</v>
+        <v>508.0578561247708</v>
       </c>
       <c r="V34" t="n">
-        <v>409.5098068987704</v>
+        <v>404.933024765805</v>
       </c>
       <c r="W34" t="n">
-        <v>271.652293708731</v>
+        <v>267.0755115757656</v>
       </c>
       <c r="X34" t="n">
-        <v>195.2223996576348</v>
+        <v>190.6456175246695</v>
       </c>
       <c r="Y34" t="n">
-        <v>125.9894773610259</v>
+        <v>121.4126952280606</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>872.4784887810902</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852419</v>
+        <v>743.2932336852421</v>
       </c>
       <c r="D35" t="n">
-        <v>624.8047969230549</v>
+        <v>624.8047969230552</v>
       </c>
       <c r="E35" t="n">
-        <v>478.7938061693741</v>
+        <v>478.7938061693745</v>
       </c>
       <c r="F35" t="n">
-        <v>307.5851632243301</v>
+        <v>307.5851632243305</v>
       </c>
       <c r="G35" t="n">
         <v>128.3713956372717</v>
@@ -6971,13 +6971,13 @@
         <v>1507.628652472971</v>
       </c>
       <c r="V35" t="n">
-        <v>1416.343026973964</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W35" t="n">
         <v>1303.351633548413</v>
       </c>
       <c r="X35" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y35" t="n">
         <v>1019.301067000648</v>
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>421.8488719710785</v>
+        <v>247.3848833593484</v>
       </c>
       <c r="C36" t="n">
-        <v>421.8488719710785</v>
+        <v>247.3848833593484</v>
       </c>
       <c r="D36" t="n">
-        <v>272.9144623098272</v>
+        <v>247.3848833593484</v>
       </c>
       <c r="E36" t="n">
-        <v>272.9144623098272</v>
+        <v>247.3848833593484</v>
       </c>
       <c r="F36" t="n">
-        <v>272.9144623098272</v>
+        <v>100.8503253862333</v>
       </c>
       <c r="G36" t="n">
-        <v>222.1504691355965</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H36" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I36" t="n">
         <v>30.433907073934</v>
       </c>
       <c r="J36" t="n">
-        <v>30.433907073934</v>
+        <v>40.49277633162788</v>
       </c>
       <c r="K36" t="n">
-        <v>198.6970944041448</v>
+        <v>208.7559636618387</v>
       </c>
       <c r="L36" t="n">
-        <v>486.3521110234744</v>
+        <v>496.4109802811683</v>
       </c>
       <c r="M36" t="n">
-        <v>862.9717110634077</v>
+        <v>496.4109802811683</v>
       </c>
       <c r="N36" t="n">
-        <v>873.0305803211014</v>
+        <v>873.0305803211016</v>
       </c>
       <c r="O36" t="n">
         <v>1185.002115453613</v>
@@ -7038,28 +7038,28 @@
         <v>1521.6953536967</v>
       </c>
       <c r="R36" t="n">
-        <v>1437.357835893787</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S36" t="n">
-        <v>1268.976064197888</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T36" t="n">
-        <v>1067.882194811035</v>
+        <v>1320.601484309847</v>
       </c>
       <c r="U36" t="n">
-        <v>839.6764121065274</v>
+        <v>1320.601484309847</v>
       </c>
       <c r="V36" t="n">
-        <v>604.5243038747847</v>
+        <v>1085.449376078105</v>
       </c>
       <c r="W36" t="n">
-        <v>590.0642089911465</v>
+        <v>831.2120193499031</v>
       </c>
       <c r="X36" t="n">
-        <v>590.0642089911465</v>
+        <v>623.3605191443703</v>
       </c>
       <c r="Y36" t="n">
-        <v>590.0642089911465</v>
+        <v>415.6002203794164</v>
       </c>
     </row>
     <row r="37">
@@ -7096,7 +7096,7 @@
         <v>30.433907073934</v>
       </c>
       <c r="K37" t="n">
-        <v>34.26761491947721</v>
+        <v>34.2676149194772</v>
       </c>
       <c r="L37" t="n">
         <v>94.69987566531984</v>
@@ -7123,13 +7123,13 @@
         <v>326.6579621681119</v>
       </c>
       <c r="T37" t="n">
-        <v>326.6579621681119</v>
+        <v>144.4025233717154</v>
       </c>
       <c r="U37" t="n">
-        <v>277.2364804240508</v>
+        <v>94.98104162765442</v>
       </c>
       <c r="V37" t="n">
-        <v>262.3292540627274</v>
+        <v>80.07381526633108</v>
       </c>
       <c r="W37" t="n">
         <v>30.433907073934</v>
@@ -7148,49 +7148,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.4784887810908</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852426</v>
+        <v>743.2932336852416</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230556</v>
+        <v>624.8047969230547</v>
       </c>
       <c r="E38" t="n">
-        <v>478.7938061693749</v>
+        <v>478.793806169374</v>
       </c>
       <c r="F38" t="n">
-        <v>307.5851632243308</v>
+        <v>307.58516322433</v>
       </c>
       <c r="G38" t="n">
         <v>128.3713956372717</v>
       </c>
       <c r="H38" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I38" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J38" t="n">
-        <v>60.7526010802096</v>
+        <v>60.75260108020922</v>
       </c>
       <c r="K38" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326553</v>
       </c>
       <c r="L38" t="n">
-        <v>485.3806706550284</v>
+        <v>485.380670655028</v>
       </c>
       <c r="M38" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241021</v>
       </c>
       <c r="N38" t="n">
         <v>1084.019791121359</v>
       </c>
       <c r="O38" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P38" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q38" t="n">
         <v>1521.6953536967</v>
@@ -7202,22 +7202,22 @@
         <v>1521.6953536967</v>
       </c>
       <c r="T38" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U38" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V38" t="n">
-        <v>1416.343026973964</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W38" t="n">
-        <v>1303.351633548414</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X38" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y38" t="n">
-        <v>1019.301067000649</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>989.7696459755631</v>
+        <v>247.3848833593484</v>
       </c>
       <c r="C39" t="n">
-        <v>815.3166166944361</v>
+        <v>247.3848833593484</v>
       </c>
       <c r="D39" t="n">
-        <v>666.3822070331848</v>
+        <v>247.3848833593484</v>
       </c>
       <c r="E39" t="n">
-        <v>507.1447520277294</v>
+        <v>247.3848833593484</v>
       </c>
       <c r="F39" t="n">
-        <v>360.6101940546143</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="G39" t="n">
-        <v>222.1504691355965</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="H39" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I39" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J39" t="n">
-        <v>54.79813383722134</v>
+        <v>54.79813383722132</v>
       </c>
       <c r="K39" t="n">
-        <v>223.0613211674322</v>
+        <v>208.7559636618387</v>
       </c>
       <c r="L39" t="n">
-        <v>510.7163377867618</v>
+        <v>496.4109802811683</v>
       </c>
       <c r="M39" t="n">
-        <v>887.3359378266953</v>
+        <v>873.0305803211016</v>
       </c>
       <c r="N39" t="n">
-        <v>1185.002115453614</v>
+        <v>873.0305803211016</v>
       </c>
       <c r="O39" t="n">
-        <v>1185.002115453614</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P39" t="n">
-        <v>1418.383708616428</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q39" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R39" t="n">
-        <v>1437.357835893788</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S39" t="n">
-        <v>1268.976064197889</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T39" t="n">
-        <v>1172.445077879269</v>
+        <v>1320.601484309847</v>
       </c>
       <c r="U39" t="n">
-        <v>1172.445077879269</v>
+        <v>1320.601484309847</v>
       </c>
       <c r="V39" t="n">
-        <v>1172.445077879269</v>
+        <v>1085.449376078105</v>
       </c>
       <c r="W39" t="n">
-        <v>1157.984982995631</v>
+        <v>831.2120193499031</v>
       </c>
       <c r="X39" t="n">
-        <v>1157.984982995631</v>
+        <v>623.3605191443703</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.984982995631</v>
+        <v>415.6002203794164</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="C40" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="D40" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="E40" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="F40" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G40" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H40" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I40" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J40" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K40" t="n">
-        <v>34.26761491947723</v>
+        <v>34.2676149194772</v>
       </c>
       <c r="L40" t="n">
-        <v>94.69987566531987</v>
+        <v>94.69987566531984</v>
       </c>
       <c r="M40" t="n">
-        <v>168.806344488126</v>
+        <v>168.8063444881259</v>
       </c>
       <c r="N40" t="n">
         <v>246.5853435402809</v>
@@ -7363,19 +7363,19 @@
         <v>326.6579621681119</v>
       </c>
       <c r="U40" t="n">
-        <v>277.2364804240508</v>
+        <v>94.98104162765442</v>
       </c>
       <c r="V40" t="n">
-        <v>262.3292540627274</v>
+        <v>80.07381526633108</v>
       </c>
       <c r="W40" t="n">
-        <v>212.6893458703302</v>
+        <v>30.433907073934</v>
       </c>
       <c r="X40" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="Y40" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.4306445829036</v>
+        <v>976.430644582903</v>
       </c>
       <c r="C41" t="n">
-        <v>830.5994560416669</v>
+        <v>830.5994560416664</v>
       </c>
       <c r="D41" t="n">
-        <v>695.4650858340917</v>
+        <v>695.465085834091</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8081616350228</v>
+        <v>532.8081616350221</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9535852445904</v>
+        <v>344.9535852445896</v>
       </c>
       <c r="G41" t="n">
-        <v>149.093884212143</v>
+        <v>149.0938842121431</v>
       </c>
       <c r="H41" t="n">
         <v>34.51046220341689</v>
@@ -7409,28 +7409,28 @@
         <v>34.51046220341689</v>
       </c>
       <c r="J41" t="n">
-        <v>64.82915620969247</v>
+        <v>70.38022085264021</v>
       </c>
       <c r="K41" t="n">
-        <v>231.0138234621386</v>
+        <v>236.5648881050863</v>
       </c>
       <c r="L41" t="n">
-        <v>489.4572257845113</v>
+        <v>495.008290427459</v>
       </c>
       <c r="M41" t="n">
-        <v>891.8677786238929</v>
+        <v>799.1829176965331</v>
       </c>
       <c r="N41" t="n">
-        <v>1186.33227182115</v>
+        <v>1093.64741089379</v>
       </c>
       <c r="O41" t="n">
-        <v>1419.19910488672</v>
+        <v>1520.714380661074</v>
       </c>
       <c r="P41" t="n">
-        <v>1580.271176436057</v>
+        <v>1681.786452210411</v>
       </c>
       <c r="Q41" t="n">
-        <v>1624.007834396491</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R41" t="n">
         <v>1725.523110170844</v>
@@ -7445,13 +7445,13 @@
         <v>1694.810475501726</v>
       </c>
       <c r="V41" t="n">
-        <v>1586.878916557331</v>
+        <v>1586.87891655733</v>
       </c>
       <c r="W41" t="n">
-        <v>1457.241589686392</v>
+        <v>1457.241589686391</v>
       </c>
       <c r="X41" t="n">
-        <v>1306.907159824487</v>
+        <v>1306.907159824486</v>
       </c>
       <c r="Y41" t="n">
         <v>1139.89915624785</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>361.8006677252463</v>
+        <v>346.3544048557737</v>
       </c>
       <c r="C42" t="n">
-        <v>187.3476384441193</v>
+        <v>346.3544048557737</v>
       </c>
       <c r="D42" t="n">
-        <v>38.41322878286806</v>
+        <v>346.3544048557737</v>
       </c>
       <c r="E42" t="n">
-        <v>38.41322878286806</v>
+        <v>346.3544048557737</v>
       </c>
       <c r="F42" t="n">
-        <v>34.51046220341689</v>
+        <v>199.8198468826587</v>
       </c>
       <c r="G42" t="n">
-        <v>34.51046220341689</v>
+        <v>61.36012196364078</v>
       </c>
       <c r="H42" t="n">
         <v>34.51046220341689</v>
@@ -7491,13 +7491,13 @@
         <v>58.87468896670421</v>
       </c>
       <c r="K42" t="n">
-        <v>227.1378762969151</v>
+        <v>58.87468896670421</v>
       </c>
       <c r="L42" t="n">
-        <v>514.7928929162447</v>
+        <v>346.5297055860338</v>
       </c>
       <c r="M42" t="n">
-        <v>663.2320834276529</v>
+        <v>663.2320834276534</v>
       </c>
       <c r="N42" t="n">
         <v>1076.858336795246</v>
@@ -7515,25 +7515,25 @@
         <v>1641.185592367931</v>
       </c>
       <c r="S42" t="n">
-        <v>1641.185592367931</v>
+        <v>1472.803820672032</v>
       </c>
       <c r="T42" t="n">
-        <v>1440.091722981078</v>
+        <v>1271.70995128518</v>
       </c>
       <c r="U42" t="n">
-        <v>1435.017268675745</v>
+        <v>1043.504168580672</v>
       </c>
       <c r="V42" t="n">
-        <v>1199.865160444003</v>
+        <v>808.3520603489292</v>
       </c>
       <c r="W42" t="n">
-        <v>945.6278037158011</v>
+        <v>554.1147036207276</v>
       </c>
       <c r="X42" t="n">
-        <v>737.7763035102682</v>
+        <v>554.1147036207276</v>
       </c>
       <c r="Y42" t="n">
-        <v>530.0160047453144</v>
+        <v>346.3544048557737</v>
       </c>
     </row>
     <row r="43">
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.8242485158404</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="C43" t="n">
-        <v>155.8242485158404</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="D43" t="n">
         <v>34.51046220341689</v>
@@ -7573,7 +7573,7 @@
         <v>38.34417004896009</v>
       </c>
       <c r="L43" t="n">
-        <v>98.77643079480274</v>
+        <v>98.77643079480272</v>
       </c>
       <c r="M43" t="n">
         <v>172.8828996176088</v>
@@ -7594,25 +7594,25 @@
         <v>330.7345172975947</v>
       </c>
       <c r="S43" t="n">
-        <v>330.7345172975947</v>
+        <v>209.4207309851713</v>
       </c>
       <c r="T43" t="n">
-        <v>324.5888876486295</v>
+        <v>203.275101336206</v>
       </c>
       <c r="U43" t="n">
-        <v>258.52147245918</v>
+        <v>137.2076861467565</v>
       </c>
       <c r="V43" t="n">
-        <v>226.9683126524682</v>
+        <v>105.6545263400447</v>
       </c>
       <c r="W43" t="n">
-        <v>160.6824710146827</v>
+        <v>39.36868470225917</v>
       </c>
       <c r="X43" t="n">
-        <v>155.8242485158404</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.8242485158404</v>
+        <v>34.51046220341689</v>
       </c>
     </row>
     <row r="44">
@@ -7622,64 +7622,64 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.4306445829034</v>
+        <v>976.4306445829042</v>
       </c>
       <c r="C44" t="n">
-        <v>830.5994560416668</v>
+        <v>830.5994560416675</v>
       </c>
       <c r="D44" t="n">
-        <v>695.4650858340915</v>
+        <v>695.4650858340922</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8081616350223</v>
+        <v>532.8081616350229</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9535852445898</v>
+        <v>344.9535852445904</v>
       </c>
       <c r="G44" t="n">
-        <v>149.0938842121431</v>
+        <v>149.093884212143</v>
       </c>
       <c r="H44" t="n">
         <v>34.51046220341689</v>
       </c>
       <c r="I44" t="n">
-        <v>34.51046220341689</v>
+        <v>63.97560257890039</v>
       </c>
       <c r="J44" t="n">
-        <v>264.5803575543538</v>
+        <v>94.29429658517597</v>
       </c>
       <c r="K44" t="n">
-        <v>430.7650248067999</v>
+        <v>284.7952137380028</v>
       </c>
       <c r="L44" t="n">
-        <v>689.2084271291726</v>
+        <v>543.2386160603755</v>
       </c>
       <c r="M44" t="n">
-        <v>993.3830543982467</v>
+        <v>970.3055858276595</v>
       </c>
       <c r="N44" t="n">
-        <v>1287.847547595504</v>
+        <v>1264.770079024916</v>
       </c>
       <c r="O44" t="n">
-        <v>1520.714380661074</v>
+        <v>1497.636912090486</v>
       </c>
       <c r="P44" t="n">
-        <v>1681.786452210411</v>
+        <v>1658.708983639824</v>
       </c>
       <c r="Q44" t="n">
-        <v>1725.523110170844</v>
+        <v>1702.445641600257</v>
       </c>
       <c r="R44" t="n">
-        <v>1725.523110170844</v>
+        <v>1702.445641600257</v>
       </c>
       <c r="S44" t="n">
         <v>1725.523110170844</v>
       </c>
       <c r="T44" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="U44" t="n">
-        <v>1694.810475501726</v>
+        <v>1694.810475501727</v>
       </c>
       <c r="V44" t="n">
         <v>1586.878916557331</v>
@@ -7688,10 +7688,10 @@
         <v>1457.241589686392</v>
       </c>
       <c r="X44" t="n">
-        <v>1306.907159824487</v>
+        <v>1306.907159824488</v>
       </c>
       <c r="Y44" t="n">
-        <v>1139.89915624785</v>
+        <v>1139.899156247851</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>855.3864761860281</v>
+        <v>342.6823268701237</v>
       </c>
       <c r="C45" t="n">
-        <v>680.9334469049011</v>
+        <v>342.6823268701237</v>
       </c>
       <c r="D45" t="n">
-        <v>531.9990372436498</v>
+        <v>193.7479172088724</v>
       </c>
       <c r="E45" t="n">
-        <v>372.7615822381944</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="F45" t="n">
-        <v>226.2270242650794</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="G45" t="n">
-        <v>226.2270242650794</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H45" t="n">
-        <v>115.4761487489889</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I45" t="n">
         <v>34.51046220341689</v>
       </c>
       <c r="J45" t="n">
-        <v>58.87468896670421</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="K45" t="n">
-        <v>227.1378762969151</v>
+        <v>202.7736495336277</v>
       </c>
       <c r="L45" t="n">
-        <v>514.7928929162447</v>
+        <v>490.4286661529574</v>
       </c>
       <c r="M45" t="n">
-        <v>902.4519511407074</v>
+        <v>663.2320834276534</v>
       </c>
       <c r="N45" t="n">
         <v>1076.858336795246</v>
@@ -7749,28 +7749,28 @@
         <v>1725.523110170844</v>
       </c>
       <c r="R45" t="n">
-        <v>1725.523110170844</v>
+        <v>1641.185592367931</v>
       </c>
       <c r="S45" t="n">
-        <v>1557.141338474946</v>
+        <v>1472.803820672032</v>
       </c>
       <c r="T45" t="n">
-        <v>1356.047469088093</v>
+        <v>1271.70995128518</v>
       </c>
       <c r="U45" t="n">
-        <v>1350.97301478276</v>
+        <v>1043.504168580672</v>
       </c>
       <c r="V45" t="n">
-        <v>1338.952234950193</v>
+        <v>1031.483388748104</v>
       </c>
       <c r="W45" t="n">
-        <v>1084.714878221991</v>
+        <v>777.2460320199027</v>
       </c>
       <c r="X45" t="n">
-        <v>876.8633780164582</v>
+        <v>569.3945318143699</v>
       </c>
       <c r="Y45" t="n">
-        <v>855.3864761860281</v>
+        <v>510.8976638901917</v>
       </c>
     </row>
     <row r="46">
@@ -7810,7 +7810,7 @@
         <v>38.34417004896009</v>
       </c>
       <c r="L46" t="n">
-        <v>98.77643079480274</v>
+        <v>98.77643079480272</v>
       </c>
       <c r="M46" t="n">
         <v>172.8828996176088</v>
@@ -7834,16 +7834,16 @@
         <v>330.7345172975947</v>
       </c>
       <c r="T46" t="n">
-        <v>324.5888876486294</v>
+        <v>203.2751013362059</v>
       </c>
       <c r="U46" t="n">
-        <v>258.5214724591799</v>
+        <v>137.2076861467565</v>
       </c>
       <c r="V46" t="n">
-        <v>226.9683126524681</v>
+        <v>105.6545263400447</v>
       </c>
       <c r="W46" t="n">
-        <v>39.36868470225917</v>
+        <v>39.36868470225914</v>
       </c>
       <c r="X46" t="n">
         <v>34.51046220341689</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>234.2960526295963</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>74.13025746266383</v>
+        <v>454.5540958868389</v>
       </c>
       <c r="N12" t="n">
-        <v>427.5120603705708</v>
+        <v>441.961916436827</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>82.72378564719547</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850685</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751713</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>145.9294662980896</v>
       </c>
       <c r="M15" t="n">
         <v>454.5540958868389</v>
@@ -9018,13 +9018,13 @@
         <v>441.961916436827</v>
       </c>
       <c r="O15" t="n">
-        <v>339.0828048298207</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>82.72378564719546</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>105.7220906850685</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720737</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9243,19 +9243,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>94.50242152751713</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>229.6432168814691</v>
+        <v>374.8031641565206</v>
       </c>
       <c r="N18" t="n">
         <v>441.961916436827</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>78.7395565166168</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,10 +9486,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>84.29073146033423</v>
+        <v>454.5540958868389</v>
       </c>
       <c r="N21" t="n">
-        <v>441.961916436827</v>
+        <v>61.53807801265195</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>195.627431669593</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751713</v>
       </c>
       <c r="L24" t="n">
-        <v>80.27972245565149</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>350.2410242442153</v>
+        <v>454.5540958868389</v>
       </c>
       <c r="N24" t="n">
         <v>441.961916436827</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>168.95144027136</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>101.4807052764823</v>
+        <v>111.6411792741528</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,10 +10671,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5540958868389</v>
+        <v>74.13025746266385</v>
       </c>
       <c r="N36" t="n">
-        <v>71.69855201032235</v>
+        <v>441.961916436827</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10902,19 +10902,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>250.0153809463226</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5540958868391</v>
+        <v>454.5540958868389</v>
       </c>
       <c r="N39" t="n">
-        <v>362.2109847065092</v>
+        <v>61.53807801265195</v>
       </c>
       <c r="O39" t="n">
-        <v>78.7395565166168</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751713</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>224.0688337368136</v>
+        <v>394.0316492218756</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,10 +11382,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>248.6791638007406</v>
       </c>
       <c r="N45" t="n">
-        <v>237.7061443303673</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.017240630768</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>233.556290738295</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>222.9664405879703</v>
       </c>
       <c r="E11" t="n">
         <v>250.2137690395492</v>
       </c>
       <c r="F11" t="n">
-        <v>275.1594447089989</v>
+        <v>275.1594447089988</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>217.5289183411112</v>
       </c>
       <c r="H11" t="n">
-        <v>109.1768276399668</v>
+        <v>202.6210018711096</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642682</v>
+        <v>59.42064602642677</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.87283976874616</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>238.0144996457565</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.521337623341</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>251.017240630768</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>233.5562907382949</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>15.34247358644541</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>250.2137690395492</v>
       </c>
       <c r="F14" t="n">
-        <v>256.4873504009681</v>
+        <v>275.1594447089988</v>
       </c>
       <c r="G14" t="n">
-        <v>283.0845181045931</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>202.6210018711096</v>
       </c>
       <c r="I14" t="n">
-        <v>59.42064602642682</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>89.18341408247076</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>119.5889224048976</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>217.5243676847005</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.382121702963232e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-3.785582958215628e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>936747.7588517587</v>
+        <v>936747.7588517586</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>634939.1625057048</v>
+      </c>
+      <c r="C2" t="n">
         <v>634939.1625057049</v>
       </c>
-      <c r="C2" t="n">
-        <v>634939.1625057048</v>
-      </c>
       <c r="D2" t="n">
-        <v>634939.1625057049</v>
+        <v>634939.1625057047</v>
       </c>
       <c r="E2" t="n">
-        <v>544856.1688195543</v>
+        <v>544856.1688195539</v>
       </c>
       <c r="F2" t="n">
-        <v>544856.1688195545</v>
+        <v>544856.1688195542</v>
       </c>
       <c r="G2" t="n">
+        <v>636307.3716448197</v>
+      </c>
+      <c r="H2" t="n">
+        <v>636307.3716448196</v>
+      </c>
+      <c r="I2" t="n">
+        <v>636307.3716448197</v>
+      </c>
+      <c r="J2" t="n">
+        <v>636307.3716448196</v>
+      </c>
+      <c r="K2" t="n">
+        <v>636307.3716448194</v>
+      </c>
+      <c r="L2" t="n">
         <v>636307.3716448195</v>
       </c>
-      <c r="H2" t="n">
-        <v>636307.3716448195</v>
-      </c>
-      <c r="I2" t="n">
-        <v>636307.3716448204</v>
-      </c>
-      <c r="J2" t="n">
-        <v>636307.3716448197</v>
-      </c>
-      <c r="K2" t="n">
-        <v>636307.3716448193</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>636307.37164482</v>
+      </c>
+      <c r="N2" t="n">
         <v>636307.3716448196</v>
-      </c>
-      <c r="M2" t="n">
-        <v>636307.3716448196</v>
-      </c>
-      <c r="N2" t="n">
-        <v>636307.3716448201</v>
       </c>
       <c r="O2" t="n">
         <v>636307.371644819</v>
       </c>
       <c r="P2" t="n">
-        <v>636307.3716448189</v>
+        <v>636307.3716448193</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84530.31055472427</v>
+        <v>84530.31055472423</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>116916.0581612105</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>84530.31055472429</v>
+        <v>84530.3105547242</v>
       </c>
       <c r="M3" t="n">
-        <v>87131.09894239515</v>
+        <v>87131.09894239521</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34584.19673510442</v>
+        <v>34584.19673510447</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,28 +26427,28 @@
         <v>302289.1079395697</v>
       </c>
       <c r="F4" t="n">
-        <v>302289.1079395696</v>
+        <v>302289.1079395697</v>
       </c>
       <c r="G4" t="n">
         <v>369405.3002414155</v>
       </c>
       <c r="H4" t="n">
+        <v>369405.3002414155</v>
+      </c>
+      <c r="I4" t="n">
         <v>369405.3002414156</v>
       </c>
-      <c r="I4" t="n">
-        <v>369405.3002414155</v>
-      </c>
       <c r="J4" t="n">
-        <v>367843.9154727355</v>
+        <v>367843.9154727356</v>
       </c>
       <c r="K4" t="n">
+        <v>367843.9154727356</v>
+      </c>
+      <c r="L4" t="n">
         <v>367843.9154727357</v>
       </c>
-      <c r="L4" t="n">
-        <v>367843.9154727356</v>
-      </c>
       <c r="M4" t="n">
-        <v>369405.3002414155</v>
+        <v>369405.3002414156</v>
       </c>
       <c r="N4" t="n">
         <v>369405.3002414155</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36923.20336678313</v>
+        <v>36923.20336678314</v>
       </c>
       <c r="F5" t="n">
-        <v>36923.20336678313</v>
+        <v>36923.20336678314</v>
       </c>
       <c r="G5" t="n">
         <v>45806.17671431453</v>
@@ -26494,7 +26494,7 @@
         <v>57382.03161561135</v>
       </c>
       <c r="K5" t="n">
-        <v>57382.03161561137</v>
+        <v>57382.03161561138</v>
       </c>
       <c r="L5" t="n">
         <v>57382.03161561137</v>
@@ -26503,7 +26503,7 @@
         <v>45806.17671431453</v>
       </c>
       <c r="N5" t="n">
-        <v>45806.17671431454</v>
+        <v>45806.17671431453</v>
       </c>
       <c r="O5" t="n">
         <v>47518.94570368936</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>170413.053063029</v>
+        <v>170408.6394851608</v>
       </c>
       <c r="C6" t="n">
-        <v>170413.0530630289</v>
+        <v>170408.6394851609</v>
       </c>
       <c r="D6" t="n">
-        <v>170413.053063029</v>
+        <v>170408.6394851607</v>
       </c>
       <c r="E6" t="n">
-        <v>-113562.2874057889</v>
+        <v>-113857.2912858708</v>
       </c>
       <c r="F6" t="n">
-        <v>205643.8575132017</v>
+        <v>205348.8536331198</v>
       </c>
       <c r="G6" t="n">
-        <v>136565.5841343652</v>
+        <v>136565.5841343655</v>
       </c>
       <c r="H6" t="n">
-        <v>221095.8946890894</v>
+        <v>221095.8946890896</v>
       </c>
       <c r="I6" t="n">
-        <v>221095.8946890904</v>
+        <v>221095.8946890896</v>
       </c>
       <c r="J6" t="n">
-        <v>94165.3663952624</v>
+        <v>94165.36639526217</v>
       </c>
       <c r="K6" t="n">
-        <v>211081.4245564723</v>
+        <v>211081.4245564724</v>
       </c>
       <c r="L6" t="n">
-        <v>126551.1140017484</v>
+        <v>126551.1140017483</v>
       </c>
       <c r="M6" t="n">
-        <v>133964.7957466944</v>
+        <v>133964.7957466947</v>
       </c>
       <c r="N6" t="n">
-        <v>221095.89468909</v>
+        <v>221095.8946890896</v>
       </c>
       <c r="O6" t="n">
         <v>185943.3249236868</v>
       </c>
       <c r="P6" t="n">
-        <v>220527.5216587911</v>
+        <v>220527.5216587914</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="J2" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K2" t="n">
         <v>150.044060278452</v>
@@ -26716,10 +26716,10 @@
         <v>150.044060278452</v>
       </c>
       <c r="M2" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="N2" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="O2" t="n">
         <v>220.9000151151833</v>
@@ -26811,19 +26811,19 @@
         <v>380.423838424175</v>
       </c>
       <c r="J4" t="n">
-        <v>691.5760929882896</v>
+        <v>691.5760929882895</v>
       </c>
       <c r="K4" t="n">
         <v>691.5760929882898</v>
       </c>
       <c r="L4" t="n">
-        <v>691.5760929882897</v>
+        <v>691.5760929882898</v>
       </c>
       <c r="M4" t="n">
         <v>380.423838424175</v>
       </c>
       <c r="N4" t="n">
-        <v>380.4238384241752</v>
+        <v>380.423838424175</v>
       </c>
       <c r="O4" t="n">
         <v>431.3807775427111</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.38117208504659</v>
+        <v>44.38117208504667</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
-        <v>87.33542894766586</v>
+        <v>87.33542894766595</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.90169797411207</v>
+        <v>27.90169797411206</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.1522545641146</v>
+        <v>311.1522545641145</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386006033</v>
+        <v>69.27158386006022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>50.95693911853584</v>
+        <v>50.95693911853607</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.38117208504659</v>
+        <v>44.38117208504667</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28166,19 +28166,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E12" t="n">
-        <v>95.92301985653776</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G12" t="n">
         <v>131.7166010327126</v>
@@ -28187,7 +28187,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,7 +28217,7 @@
         <v>83.49414262488439</v>
       </c>
       <c r="S12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28226,16 +28226,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>131.7166010327126</v>
+        <v>15.76699017642085</v>
       </c>
       <c r="W12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
     </row>
     <row r="13">
@@ -28275,10 +28275,10 @@
         <v>131.7166010327126</v>
       </c>
       <c r="L13" t="n">
-        <v>116.6552291119094</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="M13" t="n">
-        <v>131.7166010327126</v>
+        <v>116.6552291119084</v>
       </c>
       <c r="N13" t="n">
         <v>131.7166010327126</v>
@@ -28412,7 +28412,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>15.76699017642088</v>
       </c>
       <c r="F15" t="n">
         <v>131.7166010327126</v>
@@ -28424,7 +28424,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,7 +28454,7 @@
         <v>83.49414262488439</v>
       </c>
       <c r="S15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>131.7166010327126</v>
@@ -28463,16 +28463,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>131.7166010327126</v>
       </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
       <c r="X15" t="n">
-        <v>95.92301985653764</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
     </row>
     <row r="16">
@@ -28506,25 +28506,25 @@
         <v>131.7166010327126</v>
       </c>
       <c r="J16" t="n">
-        <v>116.6552291119094</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="K16" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="L16" t="n">
-        <v>131.7166010327126</v>
+        <v>116.6552291119083</v>
       </c>
       <c r="M16" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="N16" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Q16" t="n">
         <v>131.7166010327126</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I18" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,10 +28691,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0829306929842</v>
+        <v>82.48215382716928</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28703,13 +28703,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>81.73296223653854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28722,7 +28722,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28767,7 +28767,7 @@
         <v>67.32062995745122</v>
       </c>
       <c r="R19" t="n">
-        <v>167.1761804170862</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>220.0953094380075</v>
@@ -28782,13 +28782,13 @@
         <v>237.3794892261179</v>
       </c>
       <c r="W19" t="n">
-        <v>237.3794892261179</v>
+        <v>224.1227852347716</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>205.3985900422902</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -28880,13 +28880,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -28895,7 +28895,7 @@
         <v>137.0751276698277</v>
       </c>
       <c r="H21" t="n">
-        <v>46.86149799933454</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>80.15602968011626</v>
@@ -28925,25 +28925,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.49414262488439</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>19.23573154747166</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>166.6459168721327</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -29013,7 +29013,7 @@
         <v>226.984188467659</v>
       </c>
       <c r="U22" t="n">
-        <v>56.94660481768543</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V22" t="n">
         <v>237.3794892261179</v>
@@ -29114,13 +29114,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>154.5339444349079</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -29129,10 +29129,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H24" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>80.15602968011626</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29174,16 +29174,16 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V24" t="n">
-        <v>1.449232552547215</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>237.3794892261179</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29205,13 +29205,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>125.21480391026</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.7659706229939</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>160.2266402957612</v>
       </c>
       <c r="I25" t="n">
         <v>148.6838485916426</v>
@@ -29244,7 +29244,7 @@
         <v>167.1761804170862</v>
       </c>
       <c r="S25" t="n">
-        <v>220.0953094380075</v>
+        <v>39.66242502957505</v>
       </c>
       <c r="T25" t="n">
         <v>226.984188467659</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="H26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="I26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="N26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="27">
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.0440602784519</v>
+        <v>7.062515756852662</v>
       </c>
       <c r="C27" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -29363,16 +29363,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29411,10 +29411,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>41.84300403437851</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>150.0440602784519</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="H28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="I28" t="n">
-        <v>150.0440602784519</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J28" t="n">
         <v>77.45106251930777</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M28" t="n">
-        <v>13.08145689860626</v>
+        <v>150.044060278452</v>
       </c>
       <c r="N28" t="n">
-        <v>150.0440602784519</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>150.0440602784519</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>150.0440602784519</v>
+        <v>14.44166858541515</v>
       </c>
       <c r="Q28" t="n">
         <v>67.32062995745122</v>
       </c>
       <c r="R28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="29">
@@ -29588,22 +29588,22 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>147.4450655646388</v>
+      </c>
+      <c r="E30" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2.087667871784561</v>
       </c>
       <c r="G30" t="n">
-        <v>136.5638008277996</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H30" t="n">
         <v>109.6433667609296</v>
@@ -29639,19 +29639,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="T30" t="n">
-        <v>150.044060278452</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -29673,7 +29673,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E31" t="n">
         <v>150.044060278452</v>
@@ -29691,25 +29691,25 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J31" t="n">
-        <v>150.044060278452</v>
+        <v>77.45106251930777</v>
       </c>
       <c r="K31" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>14.4416685854147</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="N31" t="n">
-        <v>93.32131836496254</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>67.32062995745122</v>
@@ -29828,13 +29828,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>79.64470283808775</v>
       </c>
       <c r="E33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -29879,7 +29879,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>79.64470283808772</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29888,10 +29888,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>150.044060278452</v>
@@ -29916,7 +29916,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G34" t="n">
         <v>150.044060278452</v>
@@ -29925,7 +29925,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="I34" t="n">
-        <v>150.044060278452</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J34" t="n">
         <v>150.044060278452</v>
@@ -29937,19 +29937,19 @@
         <v>150.044060278452</v>
       </c>
       <c r="M34" t="n">
-        <v>95.15553167343376</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>9.16930078372215</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>67.32062995745122</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R34" t="n">
         <v>150.044060278452</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C35" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D35" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E35" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F35" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G35" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H35" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I35" t="n">
         <v>191.1372470591394</v>
@@ -30040,19 +30040,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U35" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V35" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W35" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X35" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="36">
@@ -30068,22 +30068,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>86.81877442733926</v>
+        <v>67.36287354065135</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,28 +30110,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>237.3794892261178</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30195,16 +30195,16 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T37" t="n">
-        <v>226.984188467659</v>
+        <v>46.55130405922648</v>
       </c>
       <c r="U37" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V37" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W37" t="n">
-        <v>56.94660481768557</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C38" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D38" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E38" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F38" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G38" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H38" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I38" t="n">
         <v>191.1372470591394</v>
@@ -30274,22 +30274,22 @@
         <v>197.5894408014587</v>
       </c>
       <c r="T38" t="n">
-        <v>220.9000151151842</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="U38" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V38" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W38" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X38" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y38" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="39">
@@ -30302,25 +30302,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>39.93111263175327</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T39" t="n">
-        <v>103.5172542375508</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>237.3794892261178</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30435,16 +30435,16 @@
         <v>226.984188467659</v>
       </c>
       <c r="U40" t="n">
-        <v>237.3794892261178</v>
+        <v>56.94660481768543</v>
       </c>
       <c r="V40" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W40" t="n">
-        <v>237.3794892261178</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X40" t="n">
-        <v>45.27677098060491</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -30481,7 +30481,7 @@
         <v>191.1372470591394</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>5.607136002977519</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30490,13 +30490,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>99.22820764677539</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>196.1617542441553</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>220.9000151151833</v>
+        <v>118.3593325148259</v>
       </c>
       <c r="S41" t="n">
         <v>197.5894408014587</v>
@@ -30536,25 +30536,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>141.2054734797272</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.6433667609296</v>
+        <v>83.06220359830793</v>
       </c>
       <c r="I42" t="n">
         <v>80.15602968011626</v>
@@ -30587,13 +30587,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>220.9000151151833</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30602,7 +30602,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30621,7 +30621,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>28.51482456891307</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -30666,7 +30666,7 @@
         <v>167.1761804170862</v>
       </c>
       <c r="S43" t="n">
-        <v>220.0953094380075</v>
+        <v>99.99466098870835</v>
       </c>
       <c r="T43" t="n">
         <v>220.9000151151833</v>
@@ -30715,19 +30715,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="I44" t="n">
-        <v>191.1372470591394</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="J44" t="n">
-        <v>201.7688902471326</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>24.56186858624318</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>124.1336792911212</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>118.3593325148259</v>
       </c>
       <c r="S44" t="n">
-        <v>197.5894408014587</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="T44" t="n">
         <v>220.9000151151833</v>
@@ -30773,10 +30773,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30785,16 +30785,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.49414262488439</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30830,7 +30830,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>220.9000151151833</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>220.9000151151833</v>
@@ -30842,7 +30842,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>184.4205629651785</v>
+        <v>147.770796532368</v>
       </c>
     </row>
     <row r="46">
@@ -30906,7 +30906,7 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T46" t="n">
-        <v>220.9000151151833</v>
+        <v>100.799366665884</v>
       </c>
       <c r="U46" t="n">
         <v>220.9000151151833</v>
@@ -30915,7 +30915,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="W46" t="n">
-        <v>100.7993666658842</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="X46" t="n">
         <v>220.9000151151833</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5016183778293629</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H11" t="n">
         <v>5.137199211944964</v>
@@ -31759,31 +31759,31 @@
         <v>19.33864251126653</v>
       </c>
       <c r="J11" t="n">
-        <v>42.57423279529493</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K11" t="n">
-        <v>63.80773872881187</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L11" t="n">
-        <v>79.15914215930725</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M11" t="n">
         <v>88.07979798603017</v>
       </c>
       <c r="N11" t="n">
-        <v>89.50502120203787</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O11" t="n">
         <v>84.51705345749713</v>
       </c>
       <c r="P11" t="n">
-        <v>72.13334975483473</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.16914159882065</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R11" t="n">
-        <v>31.50978542632375</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S11" t="n">
         <v>11.43062878478662</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2683894933829466</v>
+        <v>0.2683894933829465</v>
       </c>
       <c r="H12" t="n">
         <v>2.592077475566879</v>
       </c>
       <c r="I12" t="n">
-        <v>9.240603171298821</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J12" t="n">
         <v>25.35692139018444</v>
@@ -31847,7 +31847,7 @@
         <v>58.27465732422268</v>
       </c>
       <c r="M12" t="n">
-        <v>68.00377645935448</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N12" t="n">
         <v>69.80363407068135</v>
@@ -31856,7 +31856,7 @@
         <v>63.85668792782764</v>
       </c>
       <c r="P12" t="n">
-        <v>51.25062176713478</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q12" t="n">
         <v>34.25968340095297</v>
@@ -31865,10 +31865,10 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S12" t="n">
-        <v>4.985217124898149</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T12" t="n">
-        <v>1.081798001837403</v>
+        <v>1.081798001837402</v>
       </c>
       <c r="U12" t="n">
         <v>0.01765720351203597</v>
@@ -31914,7 +31914,7 @@
         <v>2.00053221167841</v>
       </c>
       <c r="I13" t="n">
-        <v>6.766626335615722</v>
+        <v>6.766626335615721</v>
       </c>
       <c r="J13" t="n">
         <v>15.90811759736501</v>
@@ -31926,13 +31926,13 @@
         <v>33.45266236174713</v>
       </c>
       <c r="M13" t="n">
-        <v>35.27114205109488</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N13" t="n">
-        <v>34.43247312799864</v>
+        <v>34.43247312799863</v>
       </c>
       <c r="O13" t="n">
-        <v>31.80396199097741</v>
+        <v>31.8039619909774</v>
       </c>
       <c r="P13" t="n">
         <v>27.21378378749441</v>
@@ -31941,16 +31941,16 @@
         <v>18.84141329424317</v>
       </c>
       <c r="R13" t="n">
-        <v>10.11721096008324</v>
+        <v>10.11721096008323</v>
       </c>
       <c r="S13" t="n">
-        <v>3.921288598964732</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9614009606225478</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01227320375262829</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5016183778293629</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H14" t="n">
         <v>5.137199211944964</v>
@@ -31996,31 +31996,31 @@
         <v>19.33864251126653</v>
       </c>
       <c r="J14" t="n">
-        <v>42.57423279529493</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K14" t="n">
-        <v>63.80773872881187</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L14" t="n">
-        <v>79.15914215930725</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M14" t="n">
         <v>88.07979798603017</v>
       </c>
       <c r="N14" t="n">
-        <v>89.50502120203787</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O14" t="n">
         <v>84.51705345749713</v>
       </c>
       <c r="P14" t="n">
-        <v>72.13334975483473</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.16914159882065</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R14" t="n">
-        <v>31.50978542632375</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S14" t="n">
         <v>11.43062878478662</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2683894933829466</v>
+        <v>0.2683894933829465</v>
       </c>
       <c r="H15" t="n">
         <v>2.592077475566879</v>
       </c>
       <c r="I15" t="n">
-        <v>9.240603171298821</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J15" t="n">
         <v>25.35692139018444</v>
@@ -32084,7 +32084,7 @@
         <v>58.27465732422268</v>
       </c>
       <c r="M15" t="n">
-        <v>68.00377645935448</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N15" t="n">
         <v>69.80363407068135</v>
@@ -32093,7 +32093,7 @@
         <v>63.85668792782764</v>
       </c>
       <c r="P15" t="n">
-        <v>51.25062176713478</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q15" t="n">
         <v>34.25968340095297</v>
@@ -32102,10 +32102,10 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S15" t="n">
-        <v>4.985217124898149</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T15" t="n">
-        <v>1.081798001837403</v>
+        <v>1.081798001837402</v>
       </c>
       <c r="U15" t="n">
         <v>0.01765720351203597</v>
@@ -32151,7 +32151,7 @@
         <v>2.00053221167841</v>
       </c>
       <c r="I16" t="n">
-        <v>6.766626335615722</v>
+        <v>6.766626335615721</v>
       </c>
       <c r="J16" t="n">
         <v>15.90811759736501</v>
@@ -32163,13 +32163,13 @@
         <v>33.45266236174713</v>
       </c>
       <c r="M16" t="n">
-        <v>35.27114205109488</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N16" t="n">
-        <v>34.43247312799864</v>
+        <v>34.43247312799863</v>
       </c>
       <c r="O16" t="n">
-        <v>31.80396199097741</v>
+        <v>31.8039619909774</v>
       </c>
       <c r="P16" t="n">
         <v>27.21378378749441</v>
@@ -32178,16 +32178,16 @@
         <v>18.84141329424317</v>
       </c>
       <c r="R16" t="n">
-        <v>10.11721096008324</v>
+        <v>10.11721096008323</v>
       </c>
       <c r="S16" t="n">
-        <v>3.921288598964732</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9614009606225478</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01227320375262829</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5016183778293629</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H17" t="n">
         <v>5.137199211944964</v>
@@ -32233,31 +32233,31 @@
         <v>19.33864251126653</v>
       </c>
       <c r="J17" t="n">
-        <v>42.57423279529493</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K17" t="n">
-        <v>63.80773872881187</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L17" t="n">
-        <v>79.15914215930725</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M17" t="n">
         <v>88.07979798603017</v>
       </c>
       <c r="N17" t="n">
-        <v>89.50502120203787</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O17" t="n">
         <v>84.51705345749713</v>
       </c>
       <c r="P17" t="n">
-        <v>72.13334975483473</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.16914159882065</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R17" t="n">
-        <v>31.50978542632375</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S17" t="n">
         <v>11.43062878478662</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2683894933829466</v>
+        <v>0.2683894933829465</v>
       </c>
       <c r="H18" t="n">
         <v>2.592077475566879</v>
       </c>
       <c r="I18" t="n">
-        <v>9.240603171298821</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J18" t="n">
         <v>25.35692139018444</v>
@@ -32321,7 +32321,7 @@
         <v>58.27465732422268</v>
       </c>
       <c r="M18" t="n">
-        <v>68.00377645935448</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N18" t="n">
         <v>69.80363407068135</v>
@@ -32330,7 +32330,7 @@
         <v>63.85668792782764</v>
       </c>
       <c r="P18" t="n">
-        <v>51.25062176713478</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q18" t="n">
         <v>34.25968340095297</v>
@@ -32339,10 +32339,10 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S18" t="n">
-        <v>4.985217124898149</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T18" t="n">
-        <v>1.081798001837403</v>
+        <v>1.081798001837402</v>
       </c>
       <c r="U18" t="n">
         <v>0.01765720351203597</v>
@@ -32388,7 +32388,7 @@
         <v>2.00053221167841</v>
       </c>
       <c r="I19" t="n">
-        <v>6.766626335615722</v>
+        <v>6.766626335615721</v>
       </c>
       <c r="J19" t="n">
         <v>15.90811759736501</v>
@@ -32400,13 +32400,13 @@
         <v>33.45266236174713</v>
       </c>
       <c r="M19" t="n">
-        <v>35.27114205109488</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N19" t="n">
-        <v>34.43247312799864</v>
+        <v>34.43247312799863</v>
       </c>
       <c r="O19" t="n">
-        <v>31.80396199097741</v>
+        <v>31.8039619909774</v>
       </c>
       <c r="P19" t="n">
         <v>27.21378378749441</v>
@@ -32415,16 +32415,16 @@
         <v>18.84141329424317</v>
       </c>
       <c r="R19" t="n">
-        <v>10.11721096008324</v>
+        <v>10.11721096008323</v>
       </c>
       <c r="S19" t="n">
-        <v>3.921288598964732</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9614009606225478</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01227320375262829</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5016183778293629</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H20" t="n">
         <v>5.137199211944964</v>
@@ -32470,31 +32470,31 @@
         <v>19.33864251126653</v>
       </c>
       <c r="J20" t="n">
-        <v>42.57423279529493</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K20" t="n">
-        <v>63.80773872881187</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L20" t="n">
-        <v>79.15914215930725</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M20" t="n">
         <v>88.07979798603017</v>
       </c>
       <c r="N20" t="n">
-        <v>89.50502120203787</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O20" t="n">
         <v>84.51705345749713</v>
       </c>
       <c r="P20" t="n">
-        <v>72.13334975483473</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.16914159882065</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R20" t="n">
-        <v>31.50978542632375</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S20" t="n">
         <v>11.43062878478662</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2683894933829466</v>
+        <v>0.2683894933829465</v>
       </c>
       <c r="H21" t="n">
         <v>2.592077475566879</v>
       </c>
       <c r="I21" t="n">
-        <v>9.240603171298821</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J21" t="n">
         <v>25.35692139018444</v>
@@ -32558,7 +32558,7 @@
         <v>58.27465732422268</v>
       </c>
       <c r="M21" t="n">
-        <v>68.00377645935448</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N21" t="n">
         <v>69.80363407068135</v>
@@ -32567,7 +32567,7 @@
         <v>63.85668792782764</v>
       </c>
       <c r="P21" t="n">
-        <v>51.25062176713478</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q21" t="n">
         <v>34.25968340095297</v>
@@ -32576,10 +32576,10 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S21" t="n">
-        <v>4.985217124898149</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T21" t="n">
-        <v>1.081798001837403</v>
+        <v>1.081798001837402</v>
       </c>
       <c r="U21" t="n">
         <v>0.01765720351203597</v>
@@ -32625,7 +32625,7 @@
         <v>2.00053221167841</v>
       </c>
       <c r="I22" t="n">
-        <v>6.766626335615722</v>
+        <v>6.766626335615721</v>
       </c>
       <c r="J22" t="n">
         <v>15.90811759736501</v>
@@ -32637,13 +32637,13 @@
         <v>33.45266236174713</v>
       </c>
       <c r="M22" t="n">
-        <v>35.27114205109488</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N22" t="n">
-        <v>34.43247312799864</v>
+        <v>34.43247312799863</v>
       </c>
       <c r="O22" t="n">
-        <v>31.80396199097741</v>
+        <v>31.8039619909774</v>
       </c>
       <c r="P22" t="n">
         <v>27.21378378749441</v>
@@ -32652,16 +32652,16 @@
         <v>18.84141329424317</v>
       </c>
       <c r="R22" t="n">
-        <v>10.11721096008324</v>
+        <v>10.11721096008323</v>
       </c>
       <c r="S22" t="n">
-        <v>3.921288598964732</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9614009606225478</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01227320375262829</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5016183778293629</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H23" t="n">
         <v>5.137199211944964</v>
@@ -32707,31 +32707,31 @@
         <v>19.33864251126653</v>
       </c>
       <c r="J23" t="n">
-        <v>42.57423279529493</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K23" t="n">
-        <v>63.80773872881187</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L23" t="n">
-        <v>79.15914215930725</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M23" t="n">
         <v>88.07979798603017</v>
       </c>
       <c r="N23" t="n">
-        <v>89.50502120203787</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O23" t="n">
         <v>84.51705345749713</v>
       </c>
       <c r="P23" t="n">
-        <v>72.13334975483473</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.16914159882065</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R23" t="n">
-        <v>31.50978542632375</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S23" t="n">
         <v>11.43062878478662</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2683894933829466</v>
+        <v>0.2683894933829465</v>
       </c>
       <c r="H24" t="n">
         <v>2.592077475566879</v>
       </c>
       <c r="I24" t="n">
-        <v>9.240603171298821</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J24" t="n">
         <v>25.35692139018444</v>
@@ -32795,7 +32795,7 @@
         <v>58.27465732422268</v>
       </c>
       <c r="M24" t="n">
-        <v>68.00377645935448</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N24" t="n">
         <v>69.80363407068135</v>
@@ -32804,7 +32804,7 @@
         <v>63.85668792782764</v>
       </c>
       <c r="P24" t="n">
-        <v>51.25062176713478</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q24" t="n">
         <v>34.25968340095297</v>
@@ -32813,10 +32813,10 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S24" t="n">
-        <v>4.985217124898149</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T24" t="n">
-        <v>1.081798001837403</v>
+        <v>1.081798001837402</v>
       </c>
       <c r="U24" t="n">
         <v>0.01765720351203597</v>
@@ -32862,7 +32862,7 @@
         <v>2.00053221167841</v>
       </c>
       <c r="I25" t="n">
-        <v>6.766626335615722</v>
+        <v>6.766626335615721</v>
       </c>
       <c r="J25" t="n">
         <v>15.90811759736501</v>
@@ -32874,13 +32874,13 @@
         <v>33.45266236174713</v>
       </c>
       <c r="M25" t="n">
-        <v>35.27114205109488</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N25" t="n">
-        <v>34.43247312799864</v>
+        <v>34.43247312799863</v>
       </c>
       <c r="O25" t="n">
-        <v>31.80396199097741</v>
+        <v>31.8039619909774</v>
       </c>
       <c r="P25" t="n">
         <v>27.21378378749441</v>
@@ -32889,16 +32889,16 @@
         <v>18.84141329424317</v>
       </c>
       <c r="R25" t="n">
-        <v>10.11721096008324</v>
+        <v>10.11721096008323</v>
       </c>
       <c r="S25" t="n">
-        <v>3.921288598964732</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9614009606225478</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01227320375262829</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5016183778293629</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H26" t="n">
         <v>5.137199211944964</v>
@@ -32944,31 +32944,31 @@
         <v>19.33864251126653</v>
       </c>
       <c r="J26" t="n">
-        <v>42.57423279529493</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K26" t="n">
-        <v>63.80773872881187</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L26" t="n">
-        <v>79.15914215930725</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M26" t="n">
         <v>88.07979798603017</v>
       </c>
       <c r="N26" t="n">
-        <v>89.50502120203787</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O26" t="n">
         <v>84.51705345749713</v>
       </c>
       <c r="P26" t="n">
-        <v>72.13334975483473</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.16914159882065</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R26" t="n">
-        <v>31.50978542632375</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S26" t="n">
         <v>11.43062878478662</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2683894933829466</v>
+        <v>0.2683894933829465</v>
       </c>
       <c r="H27" t="n">
         <v>2.592077475566879</v>
       </c>
       <c r="I27" t="n">
-        <v>9.240603171298821</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J27" t="n">
         <v>25.35692139018444</v>
@@ -33032,7 +33032,7 @@
         <v>58.27465732422268</v>
       </c>
       <c r="M27" t="n">
-        <v>68.00377645935448</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N27" t="n">
         <v>69.80363407068135</v>
@@ -33041,7 +33041,7 @@
         <v>63.85668792782764</v>
       </c>
       <c r="P27" t="n">
-        <v>51.25062176713478</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q27" t="n">
         <v>34.25968340095297</v>
@@ -33050,10 +33050,10 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S27" t="n">
-        <v>4.985217124898149</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T27" t="n">
-        <v>1.081798001837403</v>
+        <v>1.081798001837402</v>
       </c>
       <c r="U27" t="n">
         <v>0.01765720351203597</v>
@@ -33099,7 +33099,7 @@
         <v>2.00053221167841</v>
       </c>
       <c r="I28" t="n">
-        <v>6.766626335615722</v>
+        <v>6.766626335615721</v>
       </c>
       <c r="J28" t="n">
         <v>15.90811759736501</v>
@@ -33111,13 +33111,13 @@
         <v>33.45266236174713</v>
       </c>
       <c r="M28" t="n">
-        <v>35.27114205109488</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N28" t="n">
-        <v>34.43247312799864</v>
+        <v>34.43247312799863</v>
       </c>
       <c r="O28" t="n">
-        <v>31.80396199097741</v>
+        <v>31.8039619909774</v>
       </c>
       <c r="P28" t="n">
         <v>27.21378378749441</v>
@@ -33126,16 +33126,16 @@
         <v>18.84141329424317</v>
       </c>
       <c r="R28" t="n">
-        <v>10.11721096008324</v>
+        <v>10.11721096008323</v>
       </c>
       <c r="S28" t="n">
-        <v>3.921288598964732</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9614009606225478</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01227320375262829</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5016183778293629</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H29" t="n">
         <v>5.137199211944964</v>
@@ -33181,31 +33181,31 @@
         <v>19.33864251126653</v>
       </c>
       <c r="J29" t="n">
-        <v>42.57423279529493</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K29" t="n">
-        <v>63.80773872881187</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L29" t="n">
-        <v>79.15914215930725</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M29" t="n">
         <v>88.07979798603017</v>
       </c>
       <c r="N29" t="n">
-        <v>89.50502120203787</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O29" t="n">
         <v>84.51705345749713</v>
       </c>
       <c r="P29" t="n">
-        <v>72.13334975483473</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.16914159882065</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R29" t="n">
-        <v>31.50978542632375</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S29" t="n">
         <v>11.43062878478662</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2683894933829466</v>
+        <v>0.2683894933829465</v>
       </c>
       <c r="H30" t="n">
         <v>2.592077475566879</v>
       </c>
       <c r="I30" t="n">
-        <v>9.240603171298821</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J30" t="n">
         <v>25.35692139018444</v>
@@ -33269,7 +33269,7 @@
         <v>58.27465732422268</v>
       </c>
       <c r="M30" t="n">
-        <v>68.00377645935448</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N30" t="n">
         <v>69.80363407068135</v>
@@ -33278,7 +33278,7 @@
         <v>63.85668792782764</v>
       </c>
       <c r="P30" t="n">
-        <v>51.25062176713478</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q30" t="n">
         <v>34.25968340095297</v>
@@ -33287,10 +33287,10 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S30" t="n">
-        <v>4.985217124898149</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T30" t="n">
-        <v>1.081798001837403</v>
+        <v>1.081798001837402</v>
       </c>
       <c r="U30" t="n">
         <v>0.01765720351203597</v>
@@ -33336,7 +33336,7 @@
         <v>2.00053221167841</v>
       </c>
       <c r="I31" t="n">
-        <v>6.766626335615722</v>
+        <v>6.766626335615721</v>
       </c>
       <c r="J31" t="n">
         <v>15.90811759736501</v>
@@ -33348,13 +33348,13 @@
         <v>33.45266236174713</v>
       </c>
       <c r="M31" t="n">
-        <v>35.27114205109488</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N31" t="n">
-        <v>34.43247312799864</v>
+        <v>34.43247312799863</v>
       </c>
       <c r="O31" t="n">
-        <v>31.80396199097741</v>
+        <v>31.8039619909774</v>
       </c>
       <c r="P31" t="n">
         <v>27.21378378749441</v>
@@ -33363,16 +33363,16 @@
         <v>18.84141329424317</v>
       </c>
       <c r="R31" t="n">
-        <v>10.11721096008324</v>
+        <v>10.11721096008323</v>
       </c>
       <c r="S31" t="n">
-        <v>3.921288598964732</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9614009606225478</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01227320375262829</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5016183778293629</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H32" t="n">
         <v>5.137199211944964</v>
@@ -33418,31 +33418,31 @@
         <v>19.33864251126653</v>
       </c>
       <c r="J32" t="n">
-        <v>42.57423279529493</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K32" t="n">
-        <v>63.80773872881187</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L32" t="n">
-        <v>79.15914215930725</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M32" t="n">
         <v>88.07979798603017</v>
       </c>
       <c r="N32" t="n">
-        <v>89.50502120203787</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O32" t="n">
         <v>84.51705345749713</v>
       </c>
       <c r="P32" t="n">
-        <v>72.13334975483473</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.16914159882065</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R32" t="n">
-        <v>31.50978542632375</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S32" t="n">
         <v>11.43062878478662</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2683894933829466</v>
+        <v>0.2683894933829465</v>
       </c>
       <c r="H33" t="n">
         <v>2.592077475566879</v>
       </c>
       <c r="I33" t="n">
-        <v>9.240603171298821</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J33" t="n">
         <v>25.35692139018444</v>
@@ -33506,7 +33506,7 @@
         <v>58.27465732422268</v>
       </c>
       <c r="M33" t="n">
-        <v>68.00377645935448</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N33" t="n">
         <v>69.80363407068135</v>
@@ -33515,7 +33515,7 @@
         <v>63.85668792782764</v>
       </c>
       <c r="P33" t="n">
-        <v>51.25062176713478</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q33" t="n">
         <v>34.25968340095297</v>
@@ -33524,10 +33524,10 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S33" t="n">
-        <v>4.985217124898149</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T33" t="n">
-        <v>1.081798001837403</v>
+        <v>1.081798001837402</v>
       </c>
       <c r="U33" t="n">
         <v>0.01765720351203597</v>
@@ -33573,7 +33573,7 @@
         <v>2.00053221167841</v>
       </c>
       <c r="I34" t="n">
-        <v>6.766626335615722</v>
+        <v>6.766626335615721</v>
       </c>
       <c r="J34" t="n">
         <v>15.90811759736501</v>
@@ -33585,13 +33585,13 @@
         <v>33.45266236174713</v>
       </c>
       <c r="M34" t="n">
-        <v>35.27114205109488</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N34" t="n">
-        <v>34.43247312799864</v>
+        <v>34.43247312799863</v>
       </c>
       <c r="O34" t="n">
-        <v>31.80396199097741</v>
+        <v>31.8039619909774</v>
       </c>
       <c r="P34" t="n">
         <v>27.21378378749441</v>
@@ -33600,16 +33600,16 @@
         <v>18.84141329424317</v>
       </c>
       <c r="R34" t="n">
-        <v>10.11721096008324</v>
+        <v>10.11721096008323</v>
       </c>
       <c r="S34" t="n">
-        <v>3.921288598964732</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9614009606225478</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01227320375262829</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5016183778293629</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H35" t="n">
         <v>5.137199211944964</v>
@@ -33655,31 +33655,31 @@
         <v>19.33864251126653</v>
       </c>
       <c r="J35" t="n">
-        <v>42.57423279529493</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K35" t="n">
-        <v>63.80773872881187</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L35" t="n">
-        <v>79.15914215930725</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M35" t="n">
         <v>88.07979798603017</v>
       </c>
       <c r="N35" t="n">
-        <v>89.50502120203787</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O35" t="n">
         <v>84.51705345749713</v>
       </c>
       <c r="P35" t="n">
-        <v>72.13334975483473</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.16914159882065</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R35" t="n">
-        <v>31.50978542632375</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S35" t="n">
         <v>11.43062878478662</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2683894933829466</v>
+        <v>0.2683894933829465</v>
       </c>
       <c r="H36" t="n">
         <v>2.592077475566879</v>
       </c>
       <c r="I36" t="n">
-        <v>9.240603171298821</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J36" t="n">
         <v>25.35692139018444</v>
@@ -33743,7 +33743,7 @@
         <v>58.27465732422268</v>
       </c>
       <c r="M36" t="n">
-        <v>68.00377645935448</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N36" t="n">
         <v>69.80363407068135</v>
@@ -33752,7 +33752,7 @@
         <v>63.85668792782764</v>
       </c>
       <c r="P36" t="n">
-        <v>51.25062176713478</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q36" t="n">
         <v>34.25968340095297</v>
@@ -33761,10 +33761,10 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S36" t="n">
-        <v>4.985217124898149</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T36" t="n">
-        <v>1.081798001837403</v>
+        <v>1.081798001837402</v>
       </c>
       <c r="U36" t="n">
         <v>0.01765720351203597</v>
@@ -33810,7 +33810,7 @@
         <v>2.00053221167841</v>
       </c>
       <c r="I37" t="n">
-        <v>6.766626335615722</v>
+        <v>6.766626335615721</v>
       </c>
       <c r="J37" t="n">
         <v>15.90811759736501</v>
@@ -33822,13 +33822,13 @@
         <v>33.45266236174713</v>
       </c>
       <c r="M37" t="n">
-        <v>35.27114205109488</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N37" t="n">
-        <v>34.43247312799864</v>
+        <v>34.43247312799863</v>
       </c>
       <c r="O37" t="n">
-        <v>31.80396199097741</v>
+        <v>31.8039619909774</v>
       </c>
       <c r="P37" t="n">
         <v>27.21378378749441</v>
@@ -33837,16 +33837,16 @@
         <v>18.84141329424317</v>
       </c>
       <c r="R37" t="n">
-        <v>10.11721096008324</v>
+        <v>10.11721096008323</v>
       </c>
       <c r="S37" t="n">
-        <v>3.921288598964732</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9614009606225478</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01227320375262829</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5016183778293629</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H38" t="n">
         <v>5.137199211944964</v>
@@ -33892,31 +33892,31 @@
         <v>19.33864251126653</v>
       </c>
       <c r="J38" t="n">
-        <v>42.57423279529493</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K38" t="n">
-        <v>63.80773872881187</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L38" t="n">
-        <v>79.15914215930725</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M38" t="n">
         <v>88.07979798603017</v>
       </c>
       <c r="N38" t="n">
-        <v>89.50502120203787</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O38" t="n">
         <v>84.51705345749713</v>
       </c>
       <c r="P38" t="n">
-        <v>72.13334975483473</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.16914159882065</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R38" t="n">
-        <v>31.50978542632375</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S38" t="n">
         <v>11.43062878478662</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2683894933829466</v>
+        <v>0.2683894933829465</v>
       </c>
       <c r="H39" t="n">
         <v>2.592077475566879</v>
       </c>
       <c r="I39" t="n">
-        <v>9.240603171298821</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J39" t="n">
         <v>25.35692139018444</v>
@@ -33980,7 +33980,7 @@
         <v>58.27465732422268</v>
       </c>
       <c r="M39" t="n">
-        <v>68.00377645935448</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N39" t="n">
         <v>69.80363407068135</v>
@@ -33989,7 +33989,7 @@
         <v>63.85668792782764</v>
       </c>
       <c r="P39" t="n">
-        <v>51.25062176713478</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q39" t="n">
         <v>34.25968340095297</v>
@@ -33998,10 +33998,10 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S39" t="n">
-        <v>4.985217124898149</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T39" t="n">
-        <v>1.081798001837403</v>
+        <v>1.081798001837402</v>
       </c>
       <c r="U39" t="n">
         <v>0.01765720351203597</v>
@@ -34047,7 +34047,7 @@
         <v>2.00053221167841</v>
       </c>
       <c r="I40" t="n">
-        <v>6.766626335615722</v>
+        <v>6.766626335615721</v>
       </c>
       <c r="J40" t="n">
         <v>15.90811759736501</v>
@@ -34059,13 +34059,13 @@
         <v>33.45266236174713</v>
       </c>
       <c r="M40" t="n">
-        <v>35.27114205109488</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N40" t="n">
-        <v>34.43247312799864</v>
+        <v>34.43247312799863</v>
       </c>
       <c r="O40" t="n">
-        <v>31.80396199097741</v>
+        <v>31.8039619909774</v>
       </c>
       <c r="P40" t="n">
         <v>27.21378378749441</v>
@@ -34074,16 +34074,16 @@
         <v>18.84141329424317</v>
       </c>
       <c r="R40" t="n">
-        <v>10.11721096008324</v>
+        <v>10.11721096008323</v>
       </c>
       <c r="S40" t="n">
-        <v>3.921288598964732</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9614009606225478</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01227320375262829</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5016183778293629</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H41" t="n">
         <v>5.137199211944964</v>
@@ -34129,31 +34129,31 @@
         <v>19.33864251126653</v>
       </c>
       <c r="J41" t="n">
-        <v>42.57423279529493</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K41" t="n">
-        <v>63.80773872881187</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L41" t="n">
-        <v>79.15914215930725</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M41" t="n">
         <v>88.07979798603017</v>
       </c>
       <c r="N41" t="n">
-        <v>89.50502120203787</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O41" t="n">
         <v>84.51705345749713</v>
       </c>
       <c r="P41" t="n">
-        <v>72.13334975483473</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.16914159882065</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R41" t="n">
-        <v>31.50978542632375</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S41" t="n">
         <v>11.43062878478662</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2683894933829466</v>
+        <v>0.2683894933829465</v>
       </c>
       <c r="H42" t="n">
         <v>2.592077475566879</v>
       </c>
       <c r="I42" t="n">
-        <v>9.240603171298821</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J42" t="n">
         <v>25.35692139018444</v>
@@ -34217,7 +34217,7 @@
         <v>58.27465732422268</v>
       </c>
       <c r="M42" t="n">
-        <v>68.00377645935448</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N42" t="n">
         <v>69.80363407068135</v>
@@ -34226,7 +34226,7 @@
         <v>63.85668792782764</v>
       </c>
       <c r="P42" t="n">
-        <v>51.25062176713478</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q42" t="n">
         <v>34.25968340095297</v>
@@ -34235,10 +34235,10 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S42" t="n">
-        <v>4.985217124898149</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T42" t="n">
-        <v>1.081798001837403</v>
+        <v>1.081798001837402</v>
       </c>
       <c r="U42" t="n">
         <v>0.01765720351203597</v>
@@ -34284,7 +34284,7 @@
         <v>2.00053221167841</v>
       </c>
       <c r="I43" t="n">
-        <v>6.766626335615722</v>
+        <v>6.766626335615721</v>
       </c>
       <c r="J43" t="n">
         <v>15.90811759736501</v>
@@ -34296,13 +34296,13 @@
         <v>33.45266236174713</v>
       </c>
       <c r="M43" t="n">
-        <v>35.27114205109488</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N43" t="n">
-        <v>34.43247312799864</v>
+        <v>34.43247312799863</v>
       </c>
       <c r="O43" t="n">
-        <v>31.80396199097741</v>
+        <v>31.8039619909774</v>
       </c>
       <c r="P43" t="n">
         <v>27.21378378749441</v>
@@ -34311,16 +34311,16 @@
         <v>18.84141329424317</v>
       </c>
       <c r="R43" t="n">
-        <v>10.11721096008324</v>
+        <v>10.11721096008323</v>
       </c>
       <c r="S43" t="n">
-        <v>3.921288598964732</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9614009606225478</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01227320375262829</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5016183778293629</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H44" t="n">
         <v>5.137199211944964</v>
@@ -34366,31 +34366,31 @@
         <v>19.33864251126653</v>
       </c>
       <c r="J44" t="n">
-        <v>42.57423279529493</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K44" t="n">
-        <v>63.80773872881187</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L44" t="n">
-        <v>79.15914215930725</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M44" t="n">
         <v>88.07979798603017</v>
       </c>
       <c r="N44" t="n">
-        <v>89.50502120203787</v>
+        <v>89.50502120203785</v>
       </c>
       <c r="O44" t="n">
         <v>84.51705345749713</v>
       </c>
       <c r="P44" t="n">
-        <v>72.13334975483473</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.16914159882065</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R44" t="n">
-        <v>31.50978542632375</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S44" t="n">
         <v>11.43062878478662</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2683894933829466</v>
+        <v>0.2683894933829465</v>
       </c>
       <c r="H45" t="n">
         <v>2.592077475566879</v>
       </c>
       <c r="I45" t="n">
-        <v>9.240603171298821</v>
+        <v>9.240603171298819</v>
       </c>
       <c r="J45" t="n">
         <v>25.35692139018444</v>
@@ -34454,7 +34454,7 @@
         <v>58.27465732422268</v>
       </c>
       <c r="M45" t="n">
-        <v>68.00377645935448</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N45" t="n">
         <v>69.80363407068135</v>
@@ -34463,7 +34463,7 @@
         <v>63.85668792782764</v>
       </c>
       <c r="P45" t="n">
-        <v>51.25062176713478</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q45" t="n">
         <v>34.25968340095297</v>
@@ -34472,10 +34472,10 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S45" t="n">
-        <v>4.985217124898149</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T45" t="n">
-        <v>1.081798001837403</v>
+        <v>1.081798001837402</v>
       </c>
       <c r="U45" t="n">
         <v>0.01765720351203597</v>
@@ -34521,7 +34521,7 @@
         <v>2.00053221167841</v>
       </c>
       <c r="I46" t="n">
-        <v>6.766626335615722</v>
+        <v>6.766626335615721</v>
       </c>
       <c r="J46" t="n">
         <v>15.90811759736501</v>
@@ -34533,13 +34533,13 @@
         <v>33.45266236174713</v>
       </c>
       <c r="M46" t="n">
-        <v>35.27114205109488</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N46" t="n">
-        <v>34.43247312799864</v>
+        <v>34.43247312799863</v>
       </c>
       <c r="O46" t="n">
-        <v>31.80396199097741</v>
+        <v>31.8039619909774</v>
       </c>
       <c r="P46" t="n">
         <v>27.21378378749441</v>
@@ -34548,16 +34548,16 @@
         <v>18.84141329424317</v>
       </c>
       <c r="R46" t="n">
-        <v>10.11721096008324</v>
+        <v>10.11721096008323</v>
       </c>
       <c r="S46" t="n">
-        <v>3.921288598964732</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9614009606225478</v>
+        <v>0.9614009606225477</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01227320375262829</v>
+        <v>0.01227320375262828</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.62494344068241</v>
+        <v>30.6249434406824</v>
       </c>
       <c r="K11" t="n">
         <v>167.8633002549961</v>
@@ -35428,7 +35428,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.17844238427585</v>
+        <v>44.17844238427584</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>24.61033006392659</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>169.9628154850615</v>
+        <v>139.7936311020792</v>
       </c>
       <c r="L12" t="n">
         <v>290.5606228478077</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>380.423838424175</v>
       </c>
       <c r="N12" t="n">
-        <v>365.9739823579188</v>
+        <v>380.423838424175</v>
       </c>
       <c r="O12" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P12" t="n">
-        <v>235.7389829927417</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.3551970507806</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.2655385134048</v>
+        <v>54.26553851340485</v>
       </c>
       <c r="K13" t="n">
-        <v>135.5890331999279</v>
+        <v>135.589033199928</v>
       </c>
       <c r="L13" t="n">
-        <v>177.6979167339727</v>
+        <v>192.7592886547759</v>
       </c>
       <c r="M13" t="n">
-        <v>206.571620045648</v>
+        <v>191.5102481248439</v>
       </c>
       <c r="N13" t="n">
         <v>210.2812465399398</v>
       </c>
       <c r="O13" t="n">
-        <v>188.1056909377296</v>
+        <v>188.1056909377297</v>
       </c>
       <c r="P13" t="n">
-        <v>24.4923430523879</v>
+        <v>24.49234305238789</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.39597107526134</v>
+        <v>64.3959710752614</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.62494344068241</v>
+        <v>30.6249434406824</v>
       </c>
       <c r="K14" t="n">
         <v>167.8633002549961</v>
@@ -35665,7 +35665,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.17844238427585</v>
+        <v>44.17844238427584</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>24.61033006392659</v>
       </c>
       <c r="K15" t="n">
-        <v>169.9628154850615</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>290.5606228478077</v>
+        <v>65.64974384243813</v>
       </c>
       <c r="M15" t="n">
         <v>380.423838424175</v>
@@ -35738,13 +35738,13 @@
         <v>380.423838424175</v>
       </c>
       <c r="O15" t="n">
-        <v>260.3432483132039</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>104.3551970507806</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.20416659260162</v>
+        <v>54.26553851340485</v>
       </c>
       <c r="K16" t="n">
-        <v>135.5890331999279</v>
+        <v>135.589033199928</v>
       </c>
       <c r="L16" t="n">
-        <v>192.7592886547758</v>
+        <v>177.6979167339716</v>
       </c>
       <c r="M16" t="n">
-        <v>206.571620045648</v>
+        <v>206.5716200456481</v>
       </c>
       <c r="N16" t="n">
-        <v>210.2812465399398</v>
+        <v>78.56464550722723</v>
       </c>
       <c r="O16" t="n">
-        <v>188.1056909377296</v>
+        <v>188.1056909377297</v>
       </c>
       <c r="P16" t="n">
-        <v>24.4923430523879</v>
+        <v>156.2089440851005</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.39597107526134</v>
+        <v>64.3959710752614</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.62494344068238</v>
+        <v>30.6249434406824</v>
       </c>
       <c r="K17" t="n">
         <v>167.8633002549961</v>
@@ -35902,7 +35902,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.17844238427585</v>
+        <v>44.17844238427584</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>24.61033006392659</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>169.9628154850615</v>
       </c>
       <c r="L18" t="n">
         <v>290.5606228478077</v>
       </c>
       <c r="M18" t="n">
-        <v>155.5129594188053</v>
+        <v>300.6729066938568</v>
       </c>
       <c r="N18" t="n">
         <v>380.423838424175</v>
       </c>
       <c r="O18" t="n">
-        <v>315.1227627601127</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>235.7389829927417</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.872432167215361</v>
+        <v>3.872432167215358</v>
       </c>
       <c r="L19" t="n">
         <v>61.04268762206327</v>
@@ -36054,10 +36054,10 @@
         <v>78.56464550722723</v>
       </c>
       <c r="O19" t="n">
-        <v>56.38908990501708</v>
+        <v>56.38908990501707</v>
       </c>
       <c r="P19" t="n">
-        <v>24.4923430523879</v>
+        <v>24.49234305238789</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.62494344068241</v>
+        <v>30.6249434406824</v>
       </c>
       <c r="K20" t="n">
         <v>167.8633002549961</v>
       </c>
       <c r="L20" t="n">
-        <v>261.0539417397704</v>
+        <v>261.0539417397705</v>
       </c>
       <c r="M20" t="n">
         <v>307.2470982515899</v>
@@ -36139,7 +36139,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.17844238427585</v>
+        <v>44.17844238427584</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>24.61033006392659</v>
       </c>
       <c r="K21" t="n">
         <v>169.9628154850615</v>
@@ -36206,10 +36206,10 @@
         <v>290.5606228478077</v>
       </c>
       <c r="M21" t="n">
-        <v>10.16047399767039</v>
+        <v>380.423838424175</v>
       </c>
       <c r="N21" t="n">
-        <v>380.423838424175</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>315.1227627601127</v>
@@ -36218,7 +36218,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.3551970507806</v>
+        <v>89.90534098452441</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.872432167215361</v>
+        <v>3.872432167215358</v>
       </c>
       <c r="L22" t="n">
         <v>61.04268762206327</v>
@@ -36291,10 +36291,10 @@
         <v>78.56464550722723</v>
       </c>
       <c r="O22" t="n">
-        <v>56.38908990501708</v>
+        <v>56.38908990501707</v>
       </c>
       <c r="P22" t="n">
-        <v>24.4923430523879</v>
+        <v>24.49234305238789</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.62494344068241</v>
+        <v>30.6249434406824</v>
       </c>
       <c r="K23" t="n">
         <v>167.8633002549961</v>
@@ -36376,7 +36376,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.17844238427585</v>
+        <v>44.17844238427584</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>24.61033006392659</v>
       </c>
       <c r="K24" t="n">
-        <v>169.9628154850615</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>290.5606228478077</v>
       </c>
       <c r="M24" t="n">
-        <v>276.1107667815514</v>
+        <v>380.423838424175</v>
       </c>
       <c r="N24" t="n">
         <v>380.423838424175</v>
       </c>
       <c r="O24" t="n">
-        <v>315.1227627601127</v>
+        <v>90.21188375474314</v>
       </c>
       <c r="P24" t="n">
         <v>235.7389829927417</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.872432167215361</v>
+        <v>3.872432167215358</v>
       </c>
       <c r="L25" t="n">
         <v>61.04268762206327</v>
@@ -36528,10 +36528,10 @@
         <v>78.56464550722723</v>
       </c>
       <c r="O25" t="n">
-        <v>56.38908990501708</v>
+        <v>56.38908990501707</v>
       </c>
       <c r="P25" t="n">
-        <v>24.4923430523879</v>
+        <v>24.49234305238789</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>180.6690037191343</v>
+        <v>180.6690037191344</v>
       </c>
       <c r="K26" t="n">
         <v>317.907360533448</v>
@@ -36601,7 +36601,7 @@
         <v>411.0980020182224</v>
       </c>
       <c r="M26" t="n">
-        <v>457.2911585300418</v>
+        <v>457.2911585300419</v>
       </c>
       <c r="N26" t="n">
         <v>447.482942295883</v>
@@ -36616,7 +36616,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R26" t="n">
-        <v>31.68472776362599</v>
+        <v>31.68472776362601</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.428587260239567</v>
+        <v>1.428587260239595</v>
       </c>
       <c r="E28" t="n">
-        <v>3.610097631882752</v>
+        <v>3.61009763188278</v>
       </c>
       <c r="F28" t="n">
-        <v>4.623012255520678</v>
+        <v>4.623012255520706</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,28 +36747,28 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.360211686809361</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>3.872432167215361</v>
+        <v>153.9164924456673</v>
       </c>
       <c r="L28" t="n">
-        <v>61.04268762206327</v>
+        <v>211.0867479005152</v>
       </c>
       <c r="M28" t="n">
-        <v>87.93647591154172</v>
+        <v>224.8990792913874</v>
       </c>
       <c r="N28" t="n">
-        <v>228.6087057856791</v>
+        <v>78.56464550722723</v>
       </c>
       <c r="O28" t="n">
-        <v>206.433150183469</v>
+        <v>56.38908990501707</v>
       </c>
       <c r="P28" t="n">
-        <v>174.5364033308398</v>
+        <v>38.93401163780305</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R29" t="n">
-        <v>31.68472776362601</v>
+        <v>31.68472776362604</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.428587260239624</v>
       </c>
       <c r="E31" t="n">
-        <v>3.61009763188278</v>
+        <v>3.610097631882809</v>
       </c>
       <c r="F31" t="n">
-        <v>4.623012255520706</v>
+        <v>4.623012255520734</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>72.59299775914418</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>153.9164924456673</v>
       </c>
       <c r="L31" t="n">
-        <v>61.04268762206327</v>
+        <v>75.48435620747797</v>
       </c>
       <c r="M31" t="n">
-        <v>74.85501901293546</v>
+        <v>224.8990792913874</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8859638721898</v>
+        <v>78.56464550722723</v>
       </c>
       <c r="O31" t="n">
-        <v>206.433150183469</v>
+        <v>56.38908990501707</v>
       </c>
       <c r="P31" t="n">
-        <v>24.4923430523879</v>
+        <v>174.5364033308399</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>457.2911585300419</v>
       </c>
       <c r="N32" t="n">
-        <v>447.4829422958831</v>
+        <v>447.482942295883</v>
       </c>
       <c r="O32" t="n">
         <v>385.2630835770077</v>
@@ -37090,7 +37090,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R32" t="n">
-        <v>31.68472776362604</v>
+        <v>31.68472776362601</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.428587260239624</v>
+        <v>1.428587260239595</v>
       </c>
       <c r="E34" t="n">
-        <v>3.610097631882809</v>
+        <v>3.61009763188278</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.623012255520706</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.360211686809418</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.59299775914421</v>
+        <v>72.59299775914418</v>
       </c>
       <c r="K34" t="n">
         <v>153.9164924456673</v>
       </c>
       <c r="L34" t="n">
-        <v>211.0867479005153</v>
+        <v>211.0867479005152</v>
       </c>
       <c r="M34" t="n">
-        <v>170.0105506863692</v>
+        <v>74.85501901293546</v>
       </c>
       <c r="N34" t="n">
         <v>78.56464550722723</v>
       </c>
       <c r="O34" t="n">
-        <v>56.38908990501708</v>
+        <v>65.55839068873922</v>
       </c>
       <c r="P34" t="n">
-        <v>24.4923430523879</v>
+        <v>24.49234305238789</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>82.72343032100073</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>30.62494344068241</v>
+        <v>30.6249434406824</v>
       </c>
       <c r="K35" t="n">
         <v>167.8633002549961</v>
@@ -37324,7 +37324,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.17844238427585</v>
+        <v>44.17844238427584</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>10.16047399767058</v>
       </c>
       <c r="K36" t="n">
         <v>169.9628154850615</v>
@@ -37391,10 +37391,10 @@
         <v>290.5606228478077</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>380.423838424175</v>
-      </c>
-      <c r="N36" t="n">
-        <v>10.16047399767039</v>
       </c>
       <c r="O36" t="n">
         <v>315.1227627601127</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.872432167215361</v>
+        <v>3.872432167215358</v>
       </c>
       <c r="L37" t="n">
         <v>61.04268762206327</v>
@@ -37476,10 +37476,10 @@
         <v>78.56464550722723</v>
       </c>
       <c r="O37" t="n">
-        <v>56.38908990501708</v>
+        <v>56.38908990501707</v>
       </c>
       <c r="P37" t="n">
-        <v>24.4923430523879</v>
+        <v>24.49234305238789</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.62494344068241</v>
+        <v>30.62494344068203</v>
       </c>
       <c r="K38" t="n">
         <v>167.8633002549961</v>
@@ -37561,7 +37561,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.17844238427585</v>
+        <v>44.17844238427584</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>24.61033006392659</v>
       </c>
       <c r="K39" t="n">
-        <v>169.9628154850615</v>
+        <v>155.5129594188055</v>
       </c>
       <c r="L39" t="n">
         <v>290.5606228478077</v>
       </c>
       <c r="M39" t="n">
-        <v>380.4238384241752</v>
+        <v>380.423838424175</v>
       </c>
       <c r="N39" t="n">
-        <v>300.6729066938572</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P39" t="n">
         <v>235.7389829927417</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.872432167215361</v>
+        <v>3.872432167215358</v>
       </c>
       <c r="L40" t="n">
         <v>61.04268762206327</v>
@@ -37713,10 +37713,10 @@
         <v>78.56464550722723</v>
       </c>
       <c r="O40" t="n">
-        <v>56.38908990501708</v>
+        <v>56.38908990501707</v>
       </c>
       <c r="P40" t="n">
-        <v>24.4923430523879</v>
+        <v>24.49234305238789</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>30.62494344068241</v>
+        <v>36.23207944365992</v>
       </c>
       <c r="K41" t="n">
         <v>167.8633002549961</v>
@@ -37786,22 +37786,22 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M41" t="n">
-        <v>406.4753058983653</v>
+        <v>307.2470982515899</v>
       </c>
       <c r="N41" t="n">
         <v>297.4388820174311</v>
       </c>
       <c r="O41" t="n">
-        <v>235.2190232985558</v>
+        <v>431.3807775427111</v>
       </c>
       <c r="P41" t="n">
         <v>162.6990621710478</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.17844238427585</v>
+        <v>44.17844238427584</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5406826003574</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>24.61033006392659</v>
       </c>
       <c r="K42" t="n">
-        <v>169.9628154850615</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>290.5606228478077</v>
       </c>
       <c r="M42" t="n">
-        <v>149.9385762741497</v>
+        <v>319.9013917592117</v>
       </c>
       <c r="N42" t="n">
         <v>417.8042963309016</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.872432167215361</v>
+        <v>3.872432167215358</v>
       </c>
       <c r="L43" t="n">
         <v>61.04268762206327</v>
@@ -37950,10 +37950,10 @@
         <v>78.56464550722723</v>
       </c>
       <c r="O43" t="n">
-        <v>56.38908990501708</v>
+        <v>56.38908990501707</v>
       </c>
       <c r="P43" t="n">
-        <v>24.4923430523879</v>
+        <v>24.49234305238789</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,19 +38011,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.76276805604394</v>
       </c>
       <c r="J44" t="n">
-        <v>232.393833687815</v>
+        <v>30.6249434406824</v>
       </c>
       <c r="K44" t="n">
-        <v>167.8633002549961</v>
+        <v>192.4251688412392</v>
       </c>
       <c r="L44" t="n">
         <v>261.0539417397704</v>
       </c>
       <c r="M44" t="n">
-        <v>307.2470982515899</v>
+        <v>431.3807775427111</v>
       </c>
       <c r="N44" t="n">
         <v>297.4388820174311</v>
@@ -38035,13 +38035,13 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.17844238427585</v>
+        <v>44.17844238427584</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>23.3105743137246</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.61033006392659</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>169.9628154850615</v>
@@ -38102,10 +38102,10 @@
         <v>290.5606228478077</v>
       </c>
       <c r="M45" t="n">
-        <v>391.5748062873361</v>
+        <v>174.5489063380768</v>
       </c>
       <c r="N45" t="n">
-        <v>176.1680663177154</v>
+        <v>417.8042963309016</v>
       </c>
       <c r="O45" t="n">
         <v>315.1227627601127</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.872432167215361</v>
+        <v>3.872432167215358</v>
       </c>
       <c r="L46" t="n">
         <v>61.04268762206327</v>
@@ -38187,10 +38187,10 @@
         <v>78.56464550722723</v>
       </c>
       <c r="O46" t="n">
-        <v>56.38908990501708</v>
+        <v>56.38908990501707</v>
       </c>
       <c r="P46" t="n">
-        <v>24.4923430523879</v>
+        <v>24.49234305238789</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
